--- a/03.MAP/BENDING MAP.xlsx
+++ b/03.MAP/BENDING MAP.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITM_\96.BENDING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6F16024-D45A-492F-947D-E3761F8DA235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B27099C-118D-4348-A29A-F2C48CDD9394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{94634242-89F8-4AD8-AADD-B47026808F4E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="BUFFER IO" sheetId="1" r:id="rId1"/>
+    <sheet name="INTERFACE" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,67 +27,870 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>OUT</t>
-  </si>
-  <si>
-    <t>IN</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="280">
   <si>
     <t>P05A</t>
   </si>
   <si>
-    <t>TRANSFER LEFT</t>
-  </si>
-  <si>
     <t>P10E</t>
   </si>
   <si>
-    <t>TRANSFER RIGHT</t>
-  </si>
-  <si>
     <t>P10F</t>
   </si>
   <si>
     <t>P059</t>
   </si>
   <si>
-    <t>OUTBUFFER</t>
-  </si>
-  <si>
-    <t>BUFFER LEFT</t>
-  </si>
-  <si>
     <t>P09D</t>
   </si>
   <si>
-    <t>BUFFER RIGHT</t>
-  </si>
-  <si>
     <t>P10D</t>
   </si>
   <si>
-    <t>P02D</t>
-  </si>
-  <si>
-    <t>P02E</t>
-  </si>
-  <si>
-    <t>P06D</t>
-  </si>
-  <si>
-    <t>P06E</t>
+    <t>OUT-BUFFER</t>
+  </si>
+  <si>
+    <t>TRANSFER L</t>
+  </si>
+  <si>
+    <t>TRANSFER R</t>
+  </si>
+  <si>
+    <t>BUFFER L</t>
+  </si>
+  <si>
+    <t>BUFFER R</t>
+  </si>
+  <si>
+    <t>Out</t>
+  </si>
+  <si>
+    <t>In</t>
+  </si>
+  <si>
+    <t>P02D/P02E</t>
+  </si>
+  <si>
+    <t>P06D/P06E</t>
+  </si>
+  <si>
+    <t>IN-BUFFER</t>
+  </si>
+  <si>
+    <t>VACUMN L</t>
+  </si>
+  <si>
+    <t>VACUMN R</t>
+  </si>
+  <si>
+    <t>P09B</t>
+  </si>
+  <si>
+    <t>P10B</t>
+  </si>
+  <si>
+    <t>M6515</t>
+  </si>
+  <si>
+    <t>M6615</t>
+  </si>
+  <si>
+    <t>P099</t>
+  </si>
+  <si>
+    <t>P109</t>
+  </si>
+  <si>
+    <t>P09E</t>
+  </si>
+  <si>
+    <t>P09F</t>
+  </si>
+  <si>
+    <t>P026</t>
+  </si>
+  <si>
+    <t>P027</t>
+  </si>
+  <si>
+    <t>P02A/P02B</t>
+  </si>
+  <si>
+    <t>P06A/P06B</t>
+  </si>
+  <si>
+    <t>P097</t>
+  </si>
+  <si>
+    <t>P107</t>
+  </si>
+  <si>
+    <t>M6510</t>
+  </si>
+  <si>
+    <t>M6610</t>
+  </si>
+  <si>
+    <t>ALIGN SIDE</t>
+  </si>
+  <si>
+    <t>ALIGN TOP</t>
+  </si>
+  <si>
+    <t>FPCB ALIGN SIDE</t>
+  </si>
+  <si>
+    <t>FBCP ALIGN TOP</t>
+  </si>
+  <si>
+    <t>P09A</t>
+  </si>
+  <si>
+    <t>P094</t>
+  </si>
+  <si>
+    <t>P11D</t>
+  </si>
+  <si>
+    <t>P11E</t>
+  </si>
+  <si>
+    <t>P02C</t>
+  </si>
+  <si>
+    <t>P01D</t>
+  </si>
+  <si>
+    <t>P01E/P01F</t>
+  </si>
+  <si>
+    <t>D80000.0</t>
+  </si>
+  <si>
+    <t>D80000.1</t>
+  </si>
+  <si>
+    <t>D80000.C</t>
+  </si>
+  <si>
+    <t>D80001.0</t>
+  </si>
+  <si>
+    <t>D80001.1</t>
+  </si>
+  <si>
+    <t>D80001.2</t>
+  </si>
+  <si>
+    <t>D80001.A</t>
+  </si>
+  <si>
+    <t>D80001.B</t>
+  </si>
+  <si>
+    <t>D80001.C</t>
+  </si>
+  <si>
+    <t>D80001.D</t>
+  </si>
+  <si>
+    <t>D80001.F</t>
+  </si>
+  <si>
+    <t>D80004.C</t>
+  </si>
+  <si>
+    <t>D80006.2</t>
+  </si>
+  <si>
+    <t>D80006.3</t>
+  </si>
+  <si>
+    <t>D80008.A</t>
+  </si>
+  <si>
+    <t>D80008.B</t>
+  </si>
+  <si>
+    <t>MAIN &lt; LOAD</t>
+  </si>
+  <si>
+    <t>MAIN &gt; LOAD</t>
+  </si>
+  <si>
+    <t>D80200.0</t>
+  </si>
+  <si>
+    <t>D80200.1</t>
+  </si>
+  <si>
+    <t>D80200.C</t>
+  </si>
+  <si>
+    <t>D80200.2</t>
+  </si>
+  <si>
+    <t>D80200.A</t>
+  </si>
+  <si>
+    <t>D80200.B</t>
+  </si>
+  <si>
+    <t>D80200.3</t>
+  </si>
+  <si>
+    <t>D80200.4</t>
+  </si>
+  <si>
+    <t>D80200.5</t>
+  </si>
+  <si>
+    <t>D80200.9</t>
+  </si>
+  <si>
+    <t>D80201.4</t>
+  </si>
+  <si>
+    <t>D80201.7</t>
+  </si>
+  <si>
+    <t>D80201.8</t>
+  </si>
+  <si>
+    <t>D80201.9</t>
+  </si>
+  <si>
+    <t>D80201.B</t>
+  </si>
+  <si>
+    <t>D80201.F</t>
+  </si>
+  <si>
+    <t>D80202.0</t>
+  </si>
+  <si>
+    <t>D80202.1</t>
+  </si>
+  <si>
+    <t>D80202.2</t>
+  </si>
+  <si>
+    <t>D80202.3</t>
+  </si>
+  <si>
+    <t>D80202.4</t>
+  </si>
+  <si>
+    <t>D80202.5</t>
+  </si>
+  <si>
+    <t>D80202.6</t>
+  </si>
+  <si>
+    <t>D80202.7</t>
+  </si>
+  <si>
+    <t>D80202.8</t>
+  </si>
+  <si>
+    <t>D80202.A</t>
+  </si>
+  <si>
+    <t>D80202.B</t>
+  </si>
+  <si>
+    <t>D80207.0</t>
+  </si>
+  <si>
+    <t>D80207.1</t>
+  </si>
+  <si>
+    <t>D80213.A</t>
+  </si>
+  <si>
+    <t>D80213.B</t>
+  </si>
+  <si>
+    <t>D80213.C</t>
+  </si>
+  <si>
+    <t>D80213.D</t>
+  </si>
+  <si>
+    <t>¡¤I¥ìu INTERFACE PING</t>
+  </si>
+  <si>
+    <t>¡¤I¥ìu INTERFACE ON</t>
+  </si>
+  <si>
+    <t>¡¤I¥ìu ALARM</t>
+  </si>
+  <si>
+    <t>LD-BUFF HOLD-REQ</t>
+  </si>
+  <si>
+    <t>LDER)VAC REQ</t>
+  </si>
+  <si>
+    <t>LOAD OK</t>
+  </si>
+  <si>
+    <t>DEV CHG ACK</t>
+  </si>
+  <si>
+    <t>DEV CHG NAK</t>
+  </si>
+  <si>
+    <t>DEV COPY ACK</t>
+  </si>
+  <si>
+    <t>DEV COPY NAK</t>
+  </si>
+  <si>
+    <t>LD-SV-DATA MOVE-REQ</t>
+  </si>
+  <si>
+    <t>LDER Y BUFF-POS</t>
+  </si>
+  <si>
+    <t>LOADER ÅõÀÔÃø SAFETY BEAM</t>
+  </si>
+  <si>
+    <t>LOADER ¹èÃâÃø SAFETY BEAM</t>
+  </si>
+  <si>
+    <t>LDER-Y PAD-UP</t>
+  </si>
+  <si>
+    <t>LOADER PICKER DOWN</t>
+  </si>
+  <si>
+    <t>to LOADING</t>
+  </si>
+  <si>
+    <t>POWER ON</t>
+  </si>
+  <si>
+    <t>START</t>
+  </si>
+  <si>
+    <t>STOP</t>
+  </si>
+  <si>
+    <t>RESET</t>
+  </si>
+  <si>
+    <t>INITIAL</t>
+  </si>
+  <si>
+    <t>DRY RUN</t>
+  </si>
+  <si>
+    <t>AUTO RUN</t>
+  </si>
+  <si>
+    <t>ALARM</t>
+  </si>
+  <si>
+    <t>¥ì¥ì¨úi ¡íc¢¯e¨úECO</t>
+  </si>
+  <si>
+    <t>IN-BUFF LEFT</t>
+  </si>
+  <si>
+    <t>IN-BUFF RIGHT</t>
+  </si>
+  <si>
+    <t>L_IN BUFF EJECTOR ON</t>
+  </si>
+  <si>
+    <t>R_IN BUFF EJECTOR ON</t>
+  </si>
+  <si>
+    <t>LD SV DATA ©ö¨­¡¾aOK</t>
+  </si>
+  <si>
+    <t>LOAD STOP</t>
+  </si>
+  <si>
+    <t>LOAD REQ</t>
+  </si>
+  <si>
+    <t>BUFF HOLD ACK</t>
+  </si>
+  <si>
+    <t>IN-BUFF VAC ON</t>
+  </si>
+  <si>
+    <t>LOAD OK ACK</t>
+  </si>
+  <si>
+    <t>LF_AUTO RUN</t>
+  </si>
+  <si>
+    <t>RT_AUTO RUN</t>
+  </si>
+  <si>
+    <t>L_AUAc©öeAa¡ícAIA¡þA©¬</t>
+  </si>
+  <si>
+    <t>R_AUAc©öeAa¡ícAIA¡þA©¬</t>
+  </si>
+  <si>
+    <t>[LOAD] DEV_CHG</t>
+  </si>
+  <si>
+    <t>[LOAD] DEV_COPY</t>
+  </si>
+  <si>
+    <t>EMERGENCY ALARM</t>
+  </si>
+  <si>
+    <t>MAIN AIR ALARM</t>
+  </si>
+  <si>
+    <t>LD TRAY IN</t>
+  </si>
+  <si>
+    <t>CC¢¥o1 ¡¤I¥ìa ¨öIAIA¡þ</t>
+  </si>
+  <si>
+    <t>LD TRAY OUT</t>
+  </si>
+  <si>
+    <t>CC¢¥o2 ¡¤I¥ìa ¨öIAIA¡þ</t>
+  </si>
+  <si>
+    <t>INTERFACE BENDING SIDE</t>
+  </si>
+  <si>
+    <t>INTERFACE LOADER SIDE</t>
+  </si>
+  <si>
+    <t>LOAD &lt; MAIN</t>
+  </si>
+  <si>
+    <t>LOAD &gt; MAIN</t>
+  </si>
+  <si>
+    <t>INTERFACE UNLOADER SIDE</t>
+  </si>
+  <si>
+    <t>UNLOAD &lt; MAIN</t>
+  </si>
+  <si>
+    <t>UNLOAD &gt; MAIN</t>
+  </si>
+  <si>
+    <t>D19600.0</t>
+  </si>
+  <si>
+    <t>D19600.1</t>
+  </si>
+  <si>
+    <t>D19600.2</t>
+  </si>
+  <si>
+    <t>D19600.3</t>
+  </si>
+  <si>
+    <t>D19600.4</t>
+  </si>
+  <si>
+    <t>D19600.5</t>
+  </si>
+  <si>
+    <t>D19600.9</t>
+  </si>
+  <si>
+    <t>D19800.0</t>
+  </si>
+  <si>
+    <t>D19800.1</t>
+  </si>
+  <si>
+    <t>D19600.A</t>
+  </si>
+  <si>
+    <t>ALWAYS ON</t>
+  </si>
+  <si>
+    <t>D19801.0</t>
+  </si>
+  <si>
+    <t>D19801.1</t>
+  </si>
+  <si>
+    <t>D19801.2</t>
+  </si>
+  <si>
+    <t>BUFF HOLD REQ</t>
+  </si>
+  <si>
+    <t>BUFF VAC ON REQ</t>
+  </si>
+  <si>
+    <t>D19801.A</t>
+  </si>
+  <si>
+    <t>D19801.B</t>
+  </si>
+  <si>
+    <t>D19801.C</t>
+  </si>
+  <si>
+    <t>D19801.D</t>
+  </si>
+  <si>
+    <t>D19801.F</t>
+  </si>
+  <si>
+    <t>D19808.A</t>
+  </si>
+  <si>
+    <t>LOADER P&amp;P UP</t>
+  </si>
+  <si>
+    <t>LOADER P&amp;P DN</t>
+  </si>
+  <si>
+    <t>D19800.C</t>
+  </si>
+  <si>
+    <t>D19808.B</t>
+  </si>
+  <si>
+    <t>D19600.B</t>
+  </si>
+  <si>
+    <t>D19600.C</t>
+  </si>
+  <si>
+    <t>D19601.4</t>
+  </si>
+  <si>
+    <t>D19601.7</t>
+  </si>
+  <si>
+    <t>D19601.8</t>
+  </si>
+  <si>
+    <t>D19601.9</t>
+  </si>
+  <si>
+    <t>D19601.B</t>
+  </si>
+  <si>
+    <t>D19601.F</t>
+  </si>
+  <si>
+    <t>D19602.0</t>
+  </si>
+  <si>
+    <t>D19602.1</t>
+  </si>
+  <si>
+    <t>D19602.2</t>
+  </si>
+  <si>
+    <t>D19602.3</t>
+  </si>
+  <si>
+    <t>D19602.4</t>
+  </si>
+  <si>
+    <t>D19602.5</t>
+  </si>
+  <si>
+    <t>D19602.6</t>
+  </si>
+  <si>
+    <t>D19602.7</t>
+  </si>
+  <si>
+    <t>D19602.8</t>
+  </si>
+  <si>
+    <t>D19602.A</t>
+  </si>
+  <si>
+    <t>D19602.B</t>
+  </si>
+  <si>
+    <t>D19607.0</t>
+  </si>
+  <si>
+    <t>D19607.1</t>
+  </si>
+  <si>
+    <t>D19613.A</t>
+  </si>
+  <si>
+    <t>D19613.B</t>
+  </si>
+  <si>
+    <t>D19613.C</t>
+  </si>
+  <si>
+    <t>D19613.D</t>
+  </si>
+  <si>
+    <t>SERVO DATA ACK</t>
+  </si>
+  <si>
+    <t>LD SV DATA ACK</t>
+  </si>
+  <si>
+    <t>BND)START</t>
+  </si>
+  <si>
+    <t>BND)STOP</t>
+  </si>
+  <si>
+    <t>BND)RESET</t>
+  </si>
+  <si>
+    <t>BND)DRY RUN</t>
+  </si>
+  <si>
+    <t>BND)AUTO RUN</t>
+  </si>
+  <si>
+    <t>BND) PING</t>
+  </si>
+  <si>
+    <t>BND) ALWAYS ON</t>
+  </si>
+  <si>
+    <t>BND)INITIAL</t>
+  </si>
+  <si>
+    <t>BNB)BUFF HOLD ACK</t>
+  </si>
+  <si>
+    <t>BNB)LF_AUTO RUN</t>
+  </si>
+  <si>
+    <t>BNB)RT_AUTO RUN</t>
+  </si>
+  <si>
+    <t>P028/P029</t>
+  </si>
+  <si>
+    <t>AUTO INBUFF STEPP#00</t>
+  </si>
+  <si>
+    <t>AUTO INBUFF STEPP#01</t>
+  </si>
+  <si>
+    <t>AUTO INBUFF STEPP#02</t>
+  </si>
+  <si>
+    <t>AUTO INBUFF STEPP#03</t>
+  </si>
+  <si>
+    <t>AUTO INBUFF STEPP#04</t>
+  </si>
+  <si>
+    <t>AUTO INBUFF STEPP#05</t>
+  </si>
+  <si>
+    <t>AUTO INBUFF STEPP#06</t>
+  </si>
+  <si>
+    <t>AUTO INBUFF STEPP#07</t>
+  </si>
+  <si>
+    <t>AUTO INBUFF STEPP#08</t>
+  </si>
+  <si>
+    <t>AUTO INBUFF STEPP#09</t>
+  </si>
+  <si>
+    <t>AUTO INBUFF STEPP#10</t>
+  </si>
+  <si>
+    <t>AUTO INBUFF STEPP#11</t>
+  </si>
+  <si>
+    <t>AUTO INBUFF STEPP#12</t>
+  </si>
+  <si>
+    <t>AUTO INBUFF STEPP#13</t>
+  </si>
+  <si>
+    <t>AUTO INBUFF STEPP#14</t>
+  </si>
+  <si>
+    <t>AUTO INBUFF STEPP#15</t>
+  </si>
+  <si>
+    <t>AUTO INBUFF STEPP#16</t>
+  </si>
+  <si>
+    <t>AUTO INBUFF STEPP#17</t>
+  </si>
+  <si>
+    <t>AUTO INBUFF STEPP#18</t>
+  </si>
+  <si>
+    <t>AUTO INBUFF STEPP#19</t>
+  </si>
+  <si>
+    <t>AUTO INBUFF STEPP#20</t>
+  </si>
+  <si>
+    <t>AUTO INBUFF STEPP#21</t>
+  </si>
+  <si>
+    <t>AUTO INBUFF STEPP#22</t>
+  </si>
+  <si>
+    <t>AUTO INBUFF STEPP#23</t>
+  </si>
+  <si>
+    <t>AUTO INBUFF STEPP#24</t>
+  </si>
+  <si>
+    <t>AUTO INBUFF STEPP#25</t>
+  </si>
+  <si>
+    <t>AUTO INBUFF STEPP#26</t>
+  </si>
+  <si>
+    <t>AUTO INBUFF STEPP#27</t>
+  </si>
+  <si>
+    <t>AUTO INBUFF STEPP#28</t>
+  </si>
+  <si>
+    <t>AUTO INBUFF STEPP#29</t>
+  </si>
+  <si>
+    <t>AUTO INBUFF STEPP#30</t>
+  </si>
+  <si>
+    <t>AUTO INBUFF STEPP#31</t>
+  </si>
+  <si>
+    <t>AUTO INBUFF STEPP#32</t>
+  </si>
+  <si>
+    <t>AUTO INBUFF STEPP#33</t>
+  </si>
+  <si>
+    <t>AUTO INBUFF STEPP#34</t>
+  </si>
+  <si>
+    <t>AUTO INBUFF STEPP#35</t>
+  </si>
+  <si>
+    <t>AUTO INBUFF STEPP#36</t>
+  </si>
+  <si>
+    <t>AUTO INBUFF STEPP#37</t>
+  </si>
+  <si>
+    <t>AUTO INBUFF STEPP#38</t>
+  </si>
+  <si>
+    <t>AUTO INBUFF STEPP#39</t>
+  </si>
+  <si>
+    <t>AUTO INBUFF STEPP#40</t>
+  </si>
+  <si>
+    <t>AUTO INBUFF STEPP#41</t>
+  </si>
+  <si>
+    <t>AUTO INBUFF STEPP#42</t>
+  </si>
+  <si>
+    <t>AUTO INBUFF STEPP#43</t>
+  </si>
+  <si>
+    <t>AUTO INBUFF STEPP#44</t>
+  </si>
+  <si>
+    <t>AUTO INBUFF STEPP#45</t>
+  </si>
+  <si>
+    <t>AUTO INBUFF STEPP#46</t>
+  </si>
+  <si>
+    <t>AUTO INBUFF STEPP#47</t>
+  </si>
+  <si>
+    <t>AUTO INBUFF STEPP#48</t>
+  </si>
+  <si>
+    <t>AUTO INBUFF STEPP#49</t>
+  </si>
+  <si>
+    <t>AUTO INBUFF STEPP#50</t>
+  </si>
+  <si>
+    <t>AUTO INBUFF STEPP#51</t>
+  </si>
+  <si>
+    <t>AUTO INBUFF STEPP#52</t>
+  </si>
+  <si>
+    <t>AUTO INBUFF STEPP#53</t>
+  </si>
+  <si>
+    <t>AUTO INBUFF STEPP#54</t>
+  </si>
+  <si>
+    <t>AUTO INBUFF STEPP#55</t>
+  </si>
+  <si>
+    <t>AUTO INBUFF STEPP#56</t>
+  </si>
+  <si>
+    <t>AUTO INBUFF STEPP#57</t>
+  </si>
+  <si>
+    <t>AUTO INBUFF STEPP#58</t>
+  </si>
+  <si>
+    <t>AUTO INBUFF STEPP#59</t>
+  </si>
+  <si>
+    <t>AUTO INBUFF STEPP#60</t>
+  </si>
+  <si>
+    <t>AUTO INBUFF STEPP#61</t>
+  </si>
+  <si>
+    <t>AUTO INBUFF STEPP#62</t>
+  </si>
+  <si>
+    <t>AUTO INBUFF STEPP#63</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -99,7 +904,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -107,12 +912,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -128,6 +965,280 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{481AF70C-DB54-E893-060D-EA21238817EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="619125" y="4524375"/>
+          <a:ext cx="6372225" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>94</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F475F56-1D32-3B10-0CA4-2AEE10077750}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="3705225"/>
+          <a:ext cx="6391275" cy="676369"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>47722</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F46752EE-F1FE-CA83-1137-236C4D1E96CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="5829300"/>
+          <a:ext cx="6410325" cy="695422"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1019176</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68C0EF0E-1822-46A4-99D5-4906750680F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4162426" y="7667625"/>
+          <a:ext cx="6381750" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1009650</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>114394</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BE20C75-1DC9-4456-9A27-537ED45A9212}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4152900" y="6867525"/>
+          <a:ext cx="6391275" cy="676369"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>990600</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>142972</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{691C3B6C-A399-4CF4-B922-B7A9D0E26BCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4133850" y="8972550"/>
+          <a:ext cx="6410325" cy="695422"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -427,84 +1538,1638 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F2D3F1-5AAF-47EB-8EAD-1437A33C28C8}">
-  <dimension ref="G5:I11"/>
+  <dimension ref="B2:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12:L13"/>
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CDB8591-7F7E-4AAD-AC00-583D434FB10B}">
+  <dimension ref="A1:N35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7:XFD7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="6"/>
+    <col min="11" max="11" width="9.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="F1" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="K1" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="F2" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="K2" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="N2" s="7"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="2"/>
+      <c r="K14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="2"/>
+      <c r="K15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="2"/>
+      <c r="K16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="4"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="4"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="4"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="4"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="4"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="4"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="4"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="4"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="4"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="4"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="4"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="4"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="4"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="4"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="4"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G34" s="4"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="4"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G35" s="4"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="4"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07762C5A-EB33-4D85-8AEA-75925E03B702}">
+  <dimension ref="G11:G74"/>
+  <sheetViews>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11:G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="19.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="I9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="I11" t="s">
-        <v>16</v>
+    <row r="11" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="14" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="15" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="16" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="23" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="24" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="25" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="26" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="27" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="28" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="29" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="30" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="31" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="32" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="35" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="36" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="37" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G37" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="38" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G38" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="39" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G39" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="40" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G40" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="41" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G41" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="42" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G42" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="43" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G43" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="44" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G44" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="45" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G45" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="46" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G46" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="47" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G47" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="48" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G48" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="49" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G49" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="50" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G50" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="51" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G51" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="52" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G52" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="53" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G53" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="54" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G54" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="55" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G55" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="56" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G56" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="57" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G57" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="58" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G58" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="59" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G59" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="60" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G60" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="61" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G61" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="62" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G62" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="63" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G63" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="64" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G64" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="65" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G65" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="66" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G66" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="67" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G67" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="68" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G68" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="69" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G69" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="70" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G70" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="71" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G71" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="72" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G72" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="73" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G73" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="74" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G74" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/03.MAP/BENDING MAP.xlsx
+++ b/03.MAP/BENDING MAP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITM_\96.BENDING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B27099C-118D-4348-A29A-F2C48CDD9394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5104966A-E979-4E40-82B3-869FCE585A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{94634242-89F8-4AD8-AADD-B47026808F4E}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="271">
   <si>
     <t>P05A</t>
   </si>
@@ -677,196 +677,215 @@
     <t>P028/P029</t>
   </si>
   <si>
-    <t>AUTO INBUFF STEPP#00</t>
-  </si>
-  <si>
-    <t>AUTO INBUFF STEPP#01</t>
-  </si>
-  <si>
-    <t>AUTO INBUFF STEPP#02</t>
-  </si>
-  <si>
-    <t>AUTO INBUFF STEPP#03</t>
-  </si>
-  <si>
-    <t>AUTO INBUFF STEPP#04</t>
-  </si>
-  <si>
-    <t>AUTO INBUFF STEPP#05</t>
-  </si>
-  <si>
-    <t>AUTO INBUFF STEPP#06</t>
-  </si>
-  <si>
-    <t>AUTO INBUFF STEPP#07</t>
-  </si>
-  <si>
-    <t>AUTO INBUFF STEPP#08</t>
-  </si>
-  <si>
-    <t>AUTO INBUFF STEPP#09</t>
-  </si>
-  <si>
-    <t>AUTO INBUFF STEPP#10</t>
-  </si>
-  <si>
-    <t>AUTO INBUFF STEPP#11</t>
-  </si>
-  <si>
-    <t>AUTO INBUFF STEPP#12</t>
-  </si>
-  <si>
-    <t>AUTO INBUFF STEPP#13</t>
-  </si>
-  <si>
-    <t>AUTO INBUFF STEPP#14</t>
-  </si>
-  <si>
-    <t>AUTO INBUFF STEPP#15</t>
-  </si>
-  <si>
-    <t>AUTO INBUFF STEPP#16</t>
-  </si>
-  <si>
-    <t>AUTO INBUFF STEPP#17</t>
-  </si>
-  <si>
-    <t>AUTO INBUFF STEPP#18</t>
-  </si>
-  <si>
-    <t>AUTO INBUFF STEPP#19</t>
-  </si>
-  <si>
-    <t>AUTO INBUFF STEPP#20</t>
-  </si>
-  <si>
-    <t>AUTO INBUFF STEPP#21</t>
-  </si>
-  <si>
-    <t>AUTO INBUFF STEPP#22</t>
-  </si>
-  <si>
-    <t>AUTO INBUFF STEPP#23</t>
-  </si>
-  <si>
-    <t>AUTO INBUFF STEPP#24</t>
-  </si>
-  <si>
-    <t>AUTO INBUFF STEPP#25</t>
-  </si>
-  <si>
-    <t>AUTO INBUFF STEPP#26</t>
-  </si>
-  <si>
-    <t>AUTO INBUFF STEPP#27</t>
-  </si>
-  <si>
-    <t>AUTO INBUFF STEPP#28</t>
-  </si>
-  <si>
-    <t>AUTO INBUFF STEPP#29</t>
-  </si>
-  <si>
-    <t>AUTO INBUFF STEPP#30</t>
-  </si>
-  <si>
-    <t>AUTO INBUFF STEPP#31</t>
-  </si>
-  <si>
-    <t>AUTO INBUFF STEPP#32</t>
-  </si>
-  <si>
-    <t>AUTO INBUFF STEPP#33</t>
-  </si>
-  <si>
-    <t>AUTO INBUFF STEPP#34</t>
-  </si>
-  <si>
-    <t>AUTO INBUFF STEPP#35</t>
-  </si>
-  <si>
-    <t>AUTO INBUFF STEPP#36</t>
-  </si>
-  <si>
-    <t>AUTO INBUFF STEPP#37</t>
-  </si>
-  <si>
-    <t>AUTO INBUFF STEPP#38</t>
-  </si>
-  <si>
-    <t>AUTO INBUFF STEPP#39</t>
-  </si>
-  <si>
-    <t>AUTO INBUFF STEPP#40</t>
-  </si>
-  <si>
-    <t>AUTO INBUFF STEPP#41</t>
-  </si>
-  <si>
-    <t>AUTO INBUFF STEPP#42</t>
-  </si>
-  <si>
-    <t>AUTO INBUFF STEPP#43</t>
-  </si>
-  <si>
-    <t>AUTO INBUFF STEPP#44</t>
-  </si>
-  <si>
-    <t>AUTO INBUFF STEPP#45</t>
-  </si>
-  <si>
-    <t>AUTO INBUFF STEPP#46</t>
-  </si>
-  <si>
-    <t>AUTO INBUFF STEPP#47</t>
-  </si>
-  <si>
-    <t>AUTO INBUFF STEPP#48</t>
-  </si>
-  <si>
-    <t>AUTO INBUFF STEPP#49</t>
-  </si>
-  <si>
-    <t>AUTO INBUFF STEPP#50</t>
-  </si>
-  <si>
-    <t>AUTO INBUFF STEPP#51</t>
-  </si>
-  <si>
-    <t>AUTO INBUFF STEPP#52</t>
-  </si>
-  <si>
-    <t>AUTO INBUFF STEPP#53</t>
-  </si>
-  <si>
-    <t>AUTO INBUFF STEPP#54</t>
-  </si>
-  <si>
-    <t>AUTO INBUFF STEPP#55</t>
-  </si>
-  <si>
-    <t>AUTO INBUFF STEPP#56</t>
-  </si>
-  <si>
-    <t>AUTO INBUFF STEPP#57</t>
-  </si>
-  <si>
-    <t>AUTO INBUFF STEPP#58</t>
-  </si>
-  <si>
-    <t>AUTO INBUFF STEPP#59</t>
-  </si>
-  <si>
-    <t>AUTO INBUFF STEPP#60</t>
-  </si>
-  <si>
-    <t>AUTO INBUFF STEPP#61</t>
-  </si>
-  <si>
-    <t>AUTO INBUFF STEPP#62</t>
-  </si>
-  <si>
-    <t>AUTO INBUFF STEPP#63</t>
+    <t>KẸP TRÁI
+TRÊN</t>
+  </si>
+  <si>
+    <t>KẸP TRÁI
+DƯỚI</t>
+  </si>
+  <si>
+    <t>KẸP PHẢI
+TRÊN</t>
+  </si>
+  <si>
+    <t>KẸP PHẢI
+DƯỚI</t>
+  </si>
+  <si>
+    <t>KẸP TOP
+TRÊN</t>
+  </si>
+  <si>
+    <t>KẸP TOP
+DƯỚI</t>
+  </si>
+  <si>
+    <t>KẸP BÊN
+SAU</t>
+  </si>
+  <si>
+    <t>KẸP BÊN
+TRƯỚC</t>
+  </si>
+  <si>
+    <t>KẸP GIỮA
+SAU</t>
+  </si>
+  <si>
+    <t>KẸP GIỮA
+TRƯỚC</t>
+  </si>
+  <si>
+    <t>FPCB KẸP
+GIỮA SAU</t>
+  </si>
+  <si>
+    <t>FPCB KẸP
+GIỮA TRƯỚC</t>
+  </si>
+  <si>
+    <t>FPCB SUB 
+KẸP GIỮA 
+SAU</t>
+  </si>
+  <si>
+    <t>FPCB SUB 
+KẸP GIỮA 
+TRƯỚC</t>
+  </si>
+  <si>
+    <t>TRỤC ĐẨY
+SAU</t>
+  </si>
+  <si>
+    <t>TRỤC ĐẨY
+TRƯỚC</t>
+  </si>
+  <si>
+    <t>TRỤC GÁ
+SAU</t>
+  </si>
+  <si>
+    <t>TRỤC GÁ
+TRƯỚC</t>
+  </si>
+  <si>
+    <t>HỖ TRỢ
+TRÊN</t>
+  </si>
+  <si>
+    <t>HỖ TRỢ
+DƯỚI</t>
+  </si>
+  <si>
+    <t>R.1st
+VỊ TRÍ
+CHỜ</t>
+  </si>
+  <si>
+    <t>R.2nd
+VỊ TRÍ
+UỐN</t>
+  </si>
+  <si>
+    <t>R.3rd
+VỊ TRÍ
+TRỞ LẠI</t>
+  </si>
+  <si>
+    <t>T.3Td
+VỊ TRÍ
+TRỞ LẠI</t>
+  </si>
+  <si>
+    <t>T.1st
+VỊ TRÍ
+NHẬN</t>
+  </si>
+  <si>
+    <t>T.2nd
+VỊ TRÍ
+QUAY</t>
+  </si>
+  <si>
+    <t>Y.1st
+VỊ TRÍ
+TRỤC GÁ</t>
+  </si>
+  <si>
+    <t>Y.2nd
+VỊ TRÍ
+CỤM ĐẨY</t>
+  </si>
+  <si>
+    <t>Y.3rd
+VỊ TRÍ
+ĐẨY VÀO</t>
+  </si>
+  <si>
+    <t>Y.1st
+VỊ TRÍ
+CHỜ</t>
+  </si>
+  <si>
+    <t>Y.2nd
+VỊ TRÍ
+UỐN</t>
+  </si>
+  <si>
+    <t>Z.1st VỊ TRÍ TRÊN</t>
+  </si>
+  <si>
+    <t>Z.2nd VỊ TRÍ TRUNG TÂM</t>
+  </si>
+  <si>
+    <t>Z.3rd VỊ TRÍ BENDING.1st</t>
+  </si>
+  <si>
+    <t>Z.4th VỊ TRÍ BENDING.2nd</t>
+  </si>
+  <si>
+    <t>KẸP GIỮ
+SAU</t>
+  </si>
+  <si>
+    <t>KẸP GIỮ
+TRƯỚC</t>
+  </si>
+  <si>
+    <t>12900/140</t>
+  </si>
+  <si>
+    <t>13400/146</t>
+  </si>
+  <si>
+    <t>13900/150</t>
+  </si>
+  <si>
+    <t>14400/158</t>
+  </si>
+  <si>
+    <t>M6611</t>
+  </si>
+  <si>
+    <t>M6612</t>
+  </si>
+  <si>
+    <t>M6613</t>
+  </si>
+  <si>
+    <t>M6614</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>T)L_2nd_08 T HOME</t>
+  </si>
+  <si>
+    <t>T)L_2nd_08 T JOG-</t>
+  </si>
+  <si>
+    <t>T)L_2nd_08 T JOG+</t>
+  </si>
+  <si>
+    <t>T)L_2nd_08 T SERVO ON</t>
+  </si>
+  <si>
+    <t>T)L_2nd_08 T BK OFF</t>
+  </si>
+  <si>
+    <t>T)L_2nd_08 T STOP</t>
+  </si>
+  <si>
+    <t>T)L_2nd_08 T Pos.1st RECEIVE</t>
+  </si>
+  <si>
+    <t>T)L_2nd_08 T Pos.2nd WORK</t>
+  </si>
+  <si>
+    <t>T)L_2nd_08 T Pos.3rd</t>
   </si>
 </sst>
 </file>
@@ -931,7 +950,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -946,9 +965,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -972,15 +996,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1003,7 +1027,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="619125" y="4524375"/>
+          <a:off x="314325" y="3543300"/>
           <a:ext cx="6372225" cy="1143000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1016,15 +1040,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>94</xdr:rowOff>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>162019</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1047,7 +1071,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="3705225"/>
+          <a:off x="304800" y="2724150"/>
           <a:ext cx="6391275" cy="676369"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1060,15 +1084,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>47722</xdr:rowOff>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19147</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1091,7 +1115,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="5829300"/>
+          <a:off x="304800" y="4848225"/>
           <a:ext cx="6410325" cy="695422"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1540,8 +1564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F2D3F1-5AAF-47EB-8EAD-1437A33C28C8}">
   <dimension ref="B2:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1756,21 +1780,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="6"/>
-    <col min="11" max="11" width="9.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1794,30 +1816,30 @@
       <c r="N1" s="5"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="F2" s="7" t="s">
+      <c r="D2" s="6"/>
+      <c r="F2" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7" t="s">
+      <c r="G2" s="6"/>
+      <c r="H2" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="K2" s="7" t="s">
+      <c r="I2" s="6"/>
+      <c r="K2" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7" t="s">
+      <c r="L2" s="6"/>
+      <c r="M2" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="N2" s="7"/>
+      <c r="N2" s="6"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -2837,335 +2859,313 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07762C5A-EB33-4D85-8AEA-75925E03B702}">
-  <dimension ref="G11:G74"/>
+  <dimension ref="A5:D77"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:G74"/>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62:A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.28515625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G11" t="s">
+    <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="12" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G12" t="s">
+    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="13" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G13" t="s">
+    <row r="51" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="14" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G14" t="s">
+    <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="15" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G15" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="16" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G16" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G17" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G18" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G19" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G20" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G21" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G22" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G23" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G24" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="25" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G25" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="26" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G26" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="27" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G27" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="28" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G28" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="29" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G29" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="30" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G30" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="31" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G31" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="32" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G32" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G33" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G34" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G35" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="36" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G36" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="37" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G37" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="38" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G38" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="39" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G39" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="40" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G40" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="41" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G41" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="42" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G42" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="43" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G43" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="44" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G44" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="45" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G45" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="46" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G46" t="s">
+    <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="47" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G47" t="s">
+    <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="48" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G48" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="49" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G49" t="s">
+      <c r="D57" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="50" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G50" t="s">
+      <c r="D58" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="51" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G51" t="s">
+      <c r="D59" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="52" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G52" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="53" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G53" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="54" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G54" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="55" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G55" t="s">
+      <c r="D60" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="56" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G56" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="8" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="57" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G57" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="58" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G58" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="59" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G59" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="60" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G60" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="61" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G61" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="8" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="8" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="8" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="8" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="8" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="8" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="8" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="62" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G62" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="8" t="s">
         <v>267</v>
-      </c>
-    </row>
-    <row r="63" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G63" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="64" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G64" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="65" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G65" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="66" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G66" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="67" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G67" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="68" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G68" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="69" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G69" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="70" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G70" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="71" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G71" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="72" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G72" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="73" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G73" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="74" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G74" t="s">
-        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/03.MAP/BENDING MAP.xlsx
+++ b/03.MAP/BENDING MAP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITM_\96.BENDING\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HLC\Desktop\GitHub\ITMV-BENDING\03.MAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D329691-179D-4FEF-8487-3C10894C81F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A99CD2B-569F-401B-8360-073B5133C258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{94634242-89F8-4AD8-AADD-B47026808F4E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{94634242-89F8-4AD8-AADD-B47026808F4E}"/>
   </bookViews>
   <sheets>
     <sheet name="BUFFER IO" sheetId="1" r:id="rId1"/>
@@ -3273,30 +3273,6 @@
     <t>119F.[ĐẦU RA]</t>
   </si>
   <si>
-    <t>770.LEFT 3rd Axis#17 TOOL Z' SERVO MOTOR NOT HOME.</t>
-  </si>
-  <si>
-    <t>771.LEFT 3rd Axis#17 TOOL Z' SERVO MOTOR NOT NORMAL POSITION.</t>
-  </si>
-  <si>
-    <t>773.LEFT 3rd Axis#17 TOOL Z' SERVO MOTOR NOT MOVING.</t>
-  </si>
-  <si>
-    <t>774.LEFT 3rd Axis#17 TOOL Z' SERVO MOTOR +LIMIT.</t>
-  </si>
-  <si>
-    <t>775.LEFT 3rd Axis#17 TOOL Z' SERVO MOTOR -LIMIT.</t>
-  </si>
-  <si>
-    <t>776.LEFT 3rd Axis#17 TOOL Z' SERVO DRIVER TURN OFF.</t>
-  </si>
-  <si>
-    <t>77F.LEFT 3rd Axis#17 TOOL Z' SERVO OVERLOAD</t>
-  </si>
-  <si>
-    <t>772.LEFT 3rd Axis#17 TOOL Z' SERVO DRIVER ERROR.</t>
-  </si>
-  <si>
     <t>850.SYSTEM ITMV MES SEVER NOT RESPOND.</t>
   </si>
   <si>
@@ -3876,30 +3852,6 @@
     <t>766.LEFT 2nd Axis#16 BOTTOM ROTATE R' SERVO DRIVER TURN OFF.</t>
   </si>
   <si>
-    <t>780.RIGHT 3rd Axis#18 TOOL Z' SERVO MOTOR NOT HOME.</t>
-  </si>
-  <si>
-    <t>781.RIGHT 3rd Axis#18 TOOL Z' SERVO MOTOR NOT NORMAL POSITION.</t>
-  </si>
-  <si>
-    <t>782.RIGHT 3rd Axis#18 TOOL Z' SERVO DRIVER ERROR.</t>
-  </si>
-  <si>
-    <t>783.RIGHT 3rd Axis#18 TOOL Z' SERVO MOTOR NOT MOVING.</t>
-  </si>
-  <si>
-    <t>784.RIGHT 3rd Axis#18 TOOL Z' SERVO MOTOR +LIMIT.</t>
-  </si>
-  <si>
-    <t>785.RIGHT 3rd Axis#18 TOOL Z' SERVO MOTOR -LIMIT.</t>
-  </si>
-  <si>
-    <t>786.RIGHT 3rd Axis#18 TOOL Z' SERVO DRIVER TURN OFF.</t>
-  </si>
-  <si>
-    <t>78F.RIGHT 3rd Axis#18 TOOL Z' SERVO OVERLOAD</t>
-  </si>
-  <si>
     <t>1058.[OUTPUT LOADER] INLET PICKER Y' VACUUM SENSOR ALARM.</t>
   </si>
   <si>
@@ -4662,54 +4614,6 @@
     <t>766.BÊN TRÁI 2nd Axis#16 XOAY T ĐỘNG CƠ SERVO Ổ ĐĨA TẮT.</t>
   </si>
   <si>
-    <t>770.BÊN TRÁI 3rd Axis#17 Z ĐỘNG CƠ SERVO KHÔNG Ở VỊ TRÍ BAN ĐẦU.</t>
-  </si>
-  <si>
-    <t>771.BÊN TRÁI 3rd Axis#17 Z ĐỘNG CƠ SERVO KHÔNG Ở VỊ TRÍ BÌNH THƯỜNG.</t>
-  </si>
-  <si>
-    <t>772.BÊN TRÁI 3rd Axis#17 Z ĐỘNG CƠ SERVO. KIỂM TRA MÃ LỖI.</t>
-  </si>
-  <si>
-    <t>773.BÊN TRÁI 3rd Axis#17 Z ĐỘNG CƠ SERVO KHÔNG CHUYỂN ĐỘNG. KIỂM TRA.</t>
-  </si>
-  <si>
-    <t>774.BÊN TRÁI 3rd Axis#17 Z ĐỘNG CƠ SERVO + GIỚI HẠN.</t>
-  </si>
-  <si>
-    <t>775.BÊN TRÁI 3rd Axis#17 Z ĐỘNG CƠ SERVO - GIỚI HẠN.</t>
-  </si>
-  <si>
-    <t>776.BÊN TRÁI 3rd Axis#17 Z ĐỘNG CƠ SERVO TẮT.</t>
-  </si>
-  <si>
-    <t>77F.BÊN TRÁI 3rd Axis#17 Z ĐỘNG CƠ SERVO QUÁ TẢI.</t>
-  </si>
-  <si>
-    <t>780.BÊN PHẢI 3rd Axis#18 Z ĐỘNG CƠ SERVO KHÔNG Ở VỊ TRÍ BAN ĐẦU.</t>
-  </si>
-  <si>
-    <t>781.BÊN PHẢI 3rd Axis#18 Z ĐỘNG CƠ SERVO KHÔNG Ở VỊ TRÍ BÌNH THƯỜNG.</t>
-  </si>
-  <si>
-    <t>782.BÊN PHẢI 3rd Axis#18 Z ĐỘNG CƠ SERVO. KIỂM TRA MÃ LỖI.</t>
-  </si>
-  <si>
-    <t>783.BÊN PHẢI 3rd Axis#18 Z ĐỘNG CƠ SERVO KHÔNG CHUYỂN ĐỘNG. KIỂM TRA.</t>
-  </si>
-  <si>
-    <t>784.BÊN PHẢI 3rd Axis#18 Z ĐỘNG CƠ SERVO + GIỚI HẠN.</t>
-  </si>
-  <si>
-    <t>785.BÊN PHẢI 3rd Axis#18 Z ĐỘNG CƠ SERVO - GIỚI HẠN.</t>
-  </si>
-  <si>
-    <t>786.BÊN PHẢI 3rd Axis#18 Z ĐỘNG CƠ SERVO TẮT.</t>
-  </si>
-  <si>
-    <t>78F.BÊN PHẢI 3rd Axis#18 Z ĐỘNG CƠ SERVO QUÁ TẢI.</t>
-  </si>
-  <si>
     <t>850.HỆ THỐNG ITMV MES KHÔNG PHẢN HỒI.</t>
   </si>
   <si>
@@ -4965,12 +4869,6 @@
     <t>111F.LEFT 2nd Axis#16 T SERVO MOTOR HOMING.</t>
   </si>
   <si>
-    <t>1120.LEFT 3rd Axis#17 Z SERVO MOTOR HOMING.</t>
-  </si>
-  <si>
-    <t>1121.RIGHT 3rd Axis#18 Z SERVO MOTOR HOMING.</t>
-  </si>
-  <si>
     <t>1110.BÊN PHẢI 4th Axis#01 Z ĐỘNG CƠ SERVO VỀ VỊ TRÍ BAN ĐẦU.</t>
   </si>
   <si>
@@ -5013,12 +4911,6 @@
     <t>111F.BÊN TRÁI 2nd Axis#16 T ĐỘNG CƠ SERVO VỀ VỊ TRÍ BAN ĐẦU.</t>
   </si>
   <si>
-    <t>1120.BÊN TRÁI 3rd Axis#17 Z ĐỘNG CƠ SEVOR VỀ VỊ TRÍ BAN ĐẦU.</t>
-  </si>
-  <si>
-    <t>1121.BÊN PHẢI 3rd Axis#18 Z ĐỘNG CƠ SEVOR VỀ VỊ TRÍ BAN ĐẦU.</t>
-  </si>
-  <si>
     <t>L_4th STEP#00</t>
   </si>
   <si>
@@ -5113,6 +5005,114 @@
   </si>
   <si>
     <t>L_4th STEP#31</t>
+  </si>
+  <si>
+    <t>1120.RIGHT 3rd Axis#17 Z SERVO MOTOR HOMING.</t>
+  </si>
+  <si>
+    <t>1121.LEFT 3rd Axis#18 Z SERVO MOTOR HOMING.</t>
+  </si>
+  <si>
+    <t>1120.BÊN PHẢI 3rd Axis#17 Z ĐỘNG CƠ SEVOR VỀ VỊ TRÍ BAN ĐẦU.</t>
+  </si>
+  <si>
+    <t>1121.BÊN TRÁI 3rd Axis#18 Z ĐỘNG CƠ SEVOR VỀ VỊ TRÍ BAN ĐẦU.</t>
+  </si>
+  <si>
+    <t>770.RIGHT 3rd Axis#17 TOOL Z' SERVO MOTOR NOT HOME.</t>
+  </si>
+  <si>
+    <t>771.RIGHT 3rd Axis#17 TOOL Z' SERVO MOTOR NOT NORMAL POSITION.</t>
+  </si>
+  <si>
+    <t>772.RIGHT 3rd Axis#17 TOOL Z' SERVO DRIVER ERROR.</t>
+  </si>
+  <si>
+    <t>773.RIGHT 3rd Axis#17 TOOL Z' SERVO MOTOR NOT MOVING.</t>
+  </si>
+  <si>
+    <t>774.RIGHT 3rd Axis#17 TOOL Z' SERVO MOTOR +LIMIT.</t>
+  </si>
+  <si>
+    <t>775.RIGHT 3rd Axis#17 TOOL Z' SERVO MOTOR -LIMIT.</t>
+  </si>
+  <si>
+    <t>776.RIGHT 3rd Axis#17 TOOL Z' SERVO DRIVER TURN OFF.</t>
+  </si>
+  <si>
+    <t>77F.RIGHT 3rd Axis#17 TOOL Z' SERVO OVERLOAD</t>
+  </si>
+  <si>
+    <t>780.LEFT 3rd Axis#18 TOOL Z' SERVO MOTOR NOT HOME.</t>
+  </si>
+  <si>
+    <t>781.LEFT 3rd Axis#18 TOOL Z' SERVO MOTOR NOT NORMAL POSITION.</t>
+  </si>
+  <si>
+    <t>782.LEFT 3rd Axis#18 TOOL Z' SERVO DRIVER ERROR.</t>
+  </si>
+  <si>
+    <t>783.LEFT 3rd Axis#18 TOOL Z' SERVO MOTOR NOT MOVING.</t>
+  </si>
+  <si>
+    <t>784.LEFT 3rd Axis#18 TOOL Z' SERVO MOTOR +LIMIT.</t>
+  </si>
+  <si>
+    <t>785.LEFT 3rd Axis#18 TOOL Z' SERVO MOTOR -LIMIT.</t>
+  </si>
+  <si>
+    <t>786.LEFT 3rd Axis#18 TOOL Z' SERVO DRIVER TURN OFF.</t>
+  </si>
+  <si>
+    <t>78F.LEFT 3rd Axis#18 TOOL Z' SERVO OVERLOAD</t>
+  </si>
+  <si>
+    <t>770.BÊN PHẢI 3rd Axis#17 Z ĐỘNG CƠ SERVO KHÔNG Ở VỊ TRÍ BAN ĐẦU.</t>
+  </si>
+  <si>
+    <t>771.BÊN PHẢI 3rd Axis#17 Z ĐỘNG CƠ SERVO KHÔNG Ở VỊ TRÍ BÌNH THƯỜNG.</t>
+  </si>
+  <si>
+    <t>772.BÊN PHẢI 3rd Axis#17 Z ĐỘNG CƠ SERVO. KIỂM TRA MÃ LỖI.</t>
+  </si>
+  <si>
+    <t>773.BÊN PHẢI 3rd Axis#17 Z ĐỘNG CƠ SERVO KHÔNG CHUYỂN ĐỘNG. KIỂM TRA.</t>
+  </si>
+  <si>
+    <t>774.BÊN PHẢI 3rd Axis#17 Z ĐỘNG CƠ SERVO + GIỚI HẠN.</t>
+  </si>
+  <si>
+    <t>775.BÊN PHẢI 3rd Axis#17 Z ĐỘNG CƠ SERVO - GIỚI HẠN.</t>
+  </si>
+  <si>
+    <t>776.BÊN PHẢI 3rd Axis#17 Z ĐỘNG CƠ SERVO TẮT.</t>
+  </si>
+  <si>
+    <t>77F.BÊN PHẢI 3rd Axis#17 Z ĐỘNG CƠ SERVO QUÁ TẢI.</t>
+  </si>
+  <si>
+    <t>780.BÊN TRÁI 3rd Axis#18 Z ĐỘNG CƠ SERVO KHÔNG Ở VỊ TRÍ BAN ĐẦU.</t>
+  </si>
+  <si>
+    <t>781.BÊN TRÁI 3rd Axis#18 Z ĐỘNG CƠ SERVO KHÔNG Ở VỊ TRÍ BÌNH THƯỜNG.</t>
+  </si>
+  <si>
+    <t>782.BÊN TRÁI 3rd Axis#18 Z ĐỘNG CƠ SERVO. KIỂM TRA MÃ LỖI.</t>
+  </si>
+  <si>
+    <t>783.BÊN TRÁI 3rd Axis#18 Z ĐỘNG CƠ SERVO KHÔNG CHUYỂN ĐỘNG. KIỂM TRA.</t>
+  </si>
+  <si>
+    <t>784.BÊN TRÁI 3rd Axis#18 Z ĐỘNG CƠ SERVO + GIỚI HẠN.</t>
+  </si>
+  <si>
+    <t>785.BÊN TRÁI 3rd Axis#18 Z ĐỘNG CƠ SERVO - GIỚI HẠN.</t>
+  </si>
+  <si>
+    <t>786.BÊN TRÁI 3rd Axis#18 Z ĐỘNG CƠ SERVO TẮT.</t>
+  </si>
+  <si>
+    <t>78F.BÊN TRÁI 3rd Axis#18 Z ĐỘNG CƠ SERVO QUÁ TẢI.</t>
   </si>
 </sst>
 </file>
@@ -5231,12 +5231,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -5261,6 +5255,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6084,50 +6084,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="F1" s="6" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="F1" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="K1" s="6" t="s">
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="K1" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="F2" s="7" t="s">
+      <c r="D2" s="16"/>
+      <c r="F2" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7" t="s">
+      <c r="G2" s="16"/>
+      <c r="H2" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="K2" s="7" t="s">
+      <c r="I2" s="16"/>
+      <c r="K2" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7" t="s">
+      <c r="L2" s="16"/>
+      <c r="M2" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="N2" s="7"/>
+      <c r="N2" s="16"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -7149,8 +7149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07762C5A-EB33-4D85-8AEA-75925E03B702}">
   <dimension ref="A1:B1005"/>
   <sheetViews>
-    <sheetView topLeftCell="A800" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F816" sqref="F816"/>
+    <sheetView tabSelected="1" topLeftCell="A262" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D283" sqref="D283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7161,10 +7161,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>1091</v>
-      </c>
-      <c r="B1" s="11"/>
+      <c r="A1" s="8" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -7294,236 +7294,236 @@
         <v>231</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
         <v>1092</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="B26" s="6" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
         <v>1093</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>1394</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="B27" s="6" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
         <v>1094</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="B28" s="6" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
         <v>1095</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>1396</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="B29" s="6" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
         <v>1096</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>1397</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="B30" s="6" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
         <v>1097</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>1398</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="B31" s="6" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
         <v>1098</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>1399</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="B32" s="6" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
         <v>1099</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="B33" s="6" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
         <v>1100</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>1401</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="B34" s="6" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
         <v>1101</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>1402</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="B35" s="6" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
         <v>1102</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>1387</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="B36" s="6" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
         <v>1103</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="B37" s="6" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
         <v>1104</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>1389</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="B38" s="6" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
         <v>1105</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>1390</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="B39" s="6" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
         <v>1106</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+      <c r="B40" s="6" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
         <v>1107</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>1403</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+      <c r="B41" s="6" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
         <v>1108</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
+      <c r="B42" s="6" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
         <v>1109</v>
       </c>
-      <c r="B35" s="8" t="s">
-        <v>1368</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
+      <c r="B43" s="6" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
         <v>1110</v>
       </c>
-      <c r="B36" s="8" t="s">
-        <v>1369</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
+      <c r="B44" s="6" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
         <v>1111</v>
       </c>
-      <c r="B37" s="8" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
+      <c r="B45" s="6" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
         <v>1112</v>
       </c>
-      <c r="B38" s="8" t="s">
-        <v>1371</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
-        <v>1113</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
-        <v>1114</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
-        <v>1115</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
-        <v>1116</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>1363</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
-        <v>1117</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
-        <v>1118</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
-        <v>1119</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
-        <v>1120</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>1374</v>
+      <c r="B46" s="6" t="s">
+        <v>1358</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -7551,184 +7551,184 @@
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="6" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
         <v>1121</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>1379</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
+      <c r="B58" s="6" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
         <v>1122</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
-        <v>1123</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>1381</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
-        <v>1124</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>1382</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="8" t="s">
-        <v>1125</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>1383</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="8" t="s">
-        <v>1126</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>1384</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="8" t="s">
-        <v>1127</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
-        <v>1128</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>1404</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="8" t="s">
-        <v>1129</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
-        <v>1130</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>1406</v>
+      <c r="B59" s="6" t="s">
+        <v>1390</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>1131</v>
+        <v>1123</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>1375</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>1132</v>
+        <v>1124</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>1376</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>1133</v>
+        <v>1125</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>1377</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>1134</v>
+        <v>1126</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>1378</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="8" t="s">
-        <v>1135</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="8" t="s">
-        <v>1136</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>1386</v>
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>1370</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="8" t="s">
-        <v>1137</v>
+      <c r="A66" s="6" t="s">
+        <v>1129</v>
       </c>
       <c r="B66" s="5">
         <v>640</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="8" t="s">
-        <v>1138</v>
+      <c r="A67" s="6" t="s">
+        <v>1130</v>
       </c>
       <c r="B67" s="5">
         <v>641</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="8" t="s">
-        <v>1139</v>
+      <c r="A68" s="6" t="s">
+        <v>1131</v>
       </c>
       <c r="B68" s="5">
         <v>642</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="8" t="s">
-        <v>1140</v>
+      <c r="A69" s="6" t="s">
+        <v>1132</v>
       </c>
       <c r="B69" s="5">
         <v>643</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="8" t="s">
-        <v>1141</v>
+      <c r="A70" s="6" t="s">
+        <v>1133</v>
       </c>
       <c r="B70" s="5">
         <v>644</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="8" t="s">
-        <v>1142</v>
+      <c r="A71" s="6" t="s">
+        <v>1134</v>
       </c>
       <c r="B71" s="5">
         <v>645</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="8" t="s">
-        <v>1143</v>
+      <c r="A72" s="6" t="s">
+        <v>1135</v>
       </c>
       <c r="B72" s="5">
         <v>646</v>
@@ -7758,12 +7758,12 @@
         <v>649</v>
       </c>
     </row>
-    <row r="76" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="8" t="s">
-        <v>1144</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>1408</v>
+    <row r="76" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="6" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>1392</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -7807,83 +7807,83 @@
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="8" t="s">
+      <c r="A82" s="6" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="6" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="6" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="6" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="6" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="6" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="6" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="6" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="6" t="s">
         <v>1145</v>
       </c>
-      <c r="B82" s="5" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
+      <c r="B90" s="6" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="6" t="s">
         <v>1146</v>
       </c>
-      <c r="B83" s="5" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="8" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="8" t="s">
-        <v>1148</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="8" t="s">
-        <v>1149</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="8" t="s">
-        <v>1150</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="8" t="s">
-        <v>1151</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="8" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>1416</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="8" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>1417</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="8" t="s">
-        <v>1154</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>1418</v>
+      <c r="B91" s="6" t="s">
+        <v>1402</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -7920,114 +7920,114 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>1155</v>
+        <v>1147</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>1419</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="6" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="6" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="6" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="6" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="6" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="6" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="6" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="6" t="s">
         <v>1156</v>
       </c>
-      <c r="B97" s="5" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="8" t="s">
+      <c r="B105" s="6" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="6" t="s">
         <v>1157</v>
       </c>
-      <c r="B98" s="5" t="s">
-        <v>1421</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="8" t="s">
-        <v>1158</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>1422</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="8" t="s">
-        <v>1159</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>1423</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="8" t="s">
-        <v>1160</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>1424</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="8" t="s">
-        <v>1161</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>1425</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="8" t="s">
-        <v>1162</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>1426</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="8" t="s">
-        <v>1163</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>1427</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="8" t="s">
-        <v>1164</v>
-      </c>
-      <c r="B105" s="8" t="s">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="8" t="s">
-        <v>1165</v>
-      </c>
-      <c r="B106" s="8" t="s">
-        <v>1431</v>
+      <c r="B106" s="6" t="s">
+        <v>1415</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>1166</v>
+        <v>1158</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>1428</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
-        <v>1167</v>
+        <v>1159</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>1429</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
-        <v>1168</v>
-      </c>
-      <c r="B109" s="8" t="s">
-        <v>1432</v>
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="6" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>1416</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -8056,90 +8056,90 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="6" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="6" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="6" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="6" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="6" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="6" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="6" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="6" t="s">
         <v>1169</v>
       </c>
-      <c r="B113" s="5" t="s">
-        <v>1433</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="8" t="s">
+      <c r="B121" s="6" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="6" t="s">
         <v>1170</v>
       </c>
-      <c r="B114" s="5" t="s">
-        <v>1434</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="8" t="s">
+      <c r="B122" s="6" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="6" t="s">
         <v>1171</v>
       </c>
-      <c r="B115" s="5" t="s">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="8" t="s">
-        <v>1172</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>1436</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="8" t="s">
-        <v>1173</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>1437</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="8" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>1438</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="8" t="s">
-        <v>1175</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="8" t="s">
-        <v>1176</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="8" t="s">
-        <v>1177</v>
-      </c>
-      <c r="B121" s="8" t="s">
-        <v>1441</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="8" t="s">
-        <v>1178</v>
-      </c>
-      <c r="B122" s="8" t="s">
-        <v>1443</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="8" t="s">
-        <v>1179</v>
-      </c>
-      <c r="B123" s="8" t="s">
-        <v>1442</v>
+      <c r="B123" s="6" t="s">
+        <v>1426</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -8166,12 +8166,12 @@
         <v>252</v>
       </c>
     </row>
-    <row r="127" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="8" t="s">
-        <v>1180</v>
-      </c>
-      <c r="B127" s="8" t="s">
-        <v>1444</v>
+    <row r="127" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>1428</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -8191,66 +8191,66 @@
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="8" t="s">
-        <v>1181</v>
+      <c r="A130" s="6" t="s">
+        <v>1173</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>1445</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="8" t="s">
-        <v>1182</v>
+      <c r="A131" s="6" t="s">
+        <v>1174</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>1446</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="8" t="s">
-        <v>1183</v>
+      <c r="A132" s="6" t="s">
+        <v>1175</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>1447</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="8" t="s">
-        <v>1184</v>
+      <c r="A133" s="6" t="s">
+        <v>1176</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>1448</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="8" t="s">
-        <v>1185</v>
+      <c r="A134" s="6" t="s">
+        <v>1177</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>1449</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="8" t="s">
-        <v>1186</v>
+      <c r="A135" s="6" t="s">
+        <v>1178</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>1450</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="8" t="s">
-        <v>1187</v>
+      <c r="A136" s="6" t="s">
+        <v>1179</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>1451</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="12" t="s">
+      <c r="A137" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="B137" s="12" t="s">
+      <c r="B137" s="10" t="s">
         <v>255</v>
       </c>
     </row>
@@ -8319,235 +8319,235 @@
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="8" t="s">
+      <c r="A146" s="6" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="6" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="6" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="6" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="6" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="6" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="6" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="6" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="6" t="s">
         <v>1188</v>
       </c>
-      <c r="B146" s="5" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="8" t="s">
+      <c r="B154" s="6" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="6" t="s">
         <v>1189</v>
       </c>
-      <c r="B147" s="5" t="s">
-        <v>1465</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="8" t="s">
-        <v>1190</v>
-      </c>
-      <c r="B148" s="5" t="s">
-        <v>1466</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="8" t="s">
-        <v>1191</v>
-      </c>
-      <c r="B149" s="5" t="s">
-        <v>1467</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="8" t="s">
-        <v>1192</v>
-      </c>
-      <c r="B150" s="5" t="s">
-        <v>1468</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="8" t="s">
-        <v>1193</v>
-      </c>
-      <c r="B151" s="5" t="s">
-        <v>1469</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="8" t="s">
-        <v>1194</v>
-      </c>
-      <c r="B152" s="5" t="s">
-        <v>1470</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="8" t="s">
-        <v>1195</v>
-      </c>
-      <c r="B153" s="8" t="s">
-        <v>1473</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="8" t="s">
-        <v>1196</v>
-      </c>
-      <c r="B154" s="8" t="s">
-        <v>1472</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="8" t="s">
-        <v>1197</v>
-      </c>
-      <c r="B155" s="8" t="s">
-        <v>1474</v>
+      <c r="B155" s="6" t="s">
+        <v>1458</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
-        <v>1198</v>
+        <v>1190</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>1475</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
-        <v>1199</v>
+        <v>1191</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>1476</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
-        <v>1200</v>
+        <v>1192</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>1477</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
-        <v>1201</v>
+        <v>1193</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>1478</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="6" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="6" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="6" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="6" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="6" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="6" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="6" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="6" t="s">
         <v>1202</v>
       </c>
-      <c r="B160" s="5" t="s">
-        <v>1479</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="8" t="s">
+      <c r="B168" s="5" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="6" t="s">
         <v>1203</v>
       </c>
-      <c r="B161" s="5" t="s">
+      <c r="B169" s="5" t="s">
         <v>1471</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="8" t="s">
-        <v>1204</v>
-      </c>
-      <c r="B162" s="5" t="s">
-        <v>1480</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="8" t="s">
-        <v>1205</v>
-      </c>
-      <c r="B163" s="5" t="s">
-        <v>1481</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="8" t="s">
-        <v>1206</v>
-      </c>
-      <c r="B164" s="5" t="s">
-        <v>1482</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="8" t="s">
-        <v>1207</v>
-      </c>
-      <c r="B165" s="5" t="s">
-        <v>1483</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="8" t="s">
-        <v>1208</v>
-      </c>
-      <c r="B166" s="5" t="s">
-        <v>1484</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="8" t="s">
-        <v>1209</v>
-      </c>
-      <c r="B167" s="5" t="s">
-        <v>1485</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="8" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B168" s="5" t="s">
-        <v>1486</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="8" t="s">
-        <v>1211</v>
-      </c>
-      <c r="B169" s="5" t="s">
-        <v>1487</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>1452</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
-        <v>1213</v>
+        <v>1205</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>1453</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
-        <v>1214</v>
+        <v>1206</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>1454</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
-        <v>1215</v>
+        <v>1207</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>1455</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="8" t="s">
-        <v>1216</v>
+      <c r="A174" s="6" t="s">
+        <v>1208</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>1488</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -8566,193 +8566,193 @@
         <v>748</v>
       </c>
     </row>
-    <row r="177" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="8" t="s">
+    <row r="177" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="6" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="6" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="6" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="6" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="6" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="6" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="6" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="6" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="6" t="s">
         <v>1217</v>
       </c>
-      <c r="B177" s="8" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="8" t="s">
+      <c r="B185" s="6" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="6" t="s">
         <v>1218</v>
       </c>
-      <c r="B178" s="5" t="s">
-        <v>1490</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="8" t="s">
+      <c r="B186" s="6" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="6" t="s">
         <v>1219</v>
       </c>
-      <c r="B179" s="5" t="s">
-        <v>1491</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="8" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B180" s="5" t="s">
-        <v>1492</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="8" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B181" s="5" t="s">
-        <v>1493</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="8" t="s">
-        <v>1222</v>
-      </c>
-      <c r="B182" s="5" t="s">
-        <v>1494</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="8" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B183" s="5" t="s">
-        <v>1495</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="8" t="s">
-        <v>1224</v>
-      </c>
-      <c r="B184" s="5" t="s">
-        <v>1496</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="8" t="s">
-        <v>1225</v>
-      </c>
-      <c r="B185" s="8" t="s">
-        <v>1497</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="8" t="s">
-        <v>1226</v>
-      </c>
-      <c r="B186" s="8" t="s">
-        <v>1498</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="8" t="s">
-        <v>1227</v>
-      </c>
-      <c r="B187" s="8" t="s">
-        <v>1499</v>
+      <c r="B187" s="6" t="s">
+        <v>1483</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
-        <v>1228</v>
+        <v>1220</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>1456</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
-        <v>1229</v>
+        <v>1221</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>1457</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
-        <v>1230</v>
+        <v>1222</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>1458</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
-        <v>1231</v>
+        <v>1223</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>1459</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="8" t="s">
-        <v>1232</v>
-      </c>
-      <c r="B192" s="8" t="s">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="8" t="s">
-        <v>1233</v>
-      </c>
-      <c r="B193" s="8" t="s">
-        <v>1501</v>
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="6" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B192" s="6" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="6" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B193" s="6" t="s">
+        <v>1485</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="8" t="s">
-        <v>1234</v>
+      <c r="A194" s="6" t="s">
+        <v>1226</v>
       </c>
       <c r="B194" s="5">
         <v>720</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="8" t="s">
-        <v>1235</v>
+      <c r="A195" s="6" t="s">
+        <v>1227</v>
       </c>
       <c r="B195" s="5">
         <v>721</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="8" t="s">
-        <v>1236</v>
+      <c r="A196" s="6" t="s">
+        <v>1228</v>
       </c>
       <c r="B196" s="5">
         <v>722</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="8" t="s">
-        <v>1237</v>
+      <c r="A197" s="6" t="s">
+        <v>1229</v>
       </c>
       <c r="B197" s="5">
         <v>723</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="8" t="s">
-        <v>1238</v>
+      <c r="A198" s="6" t="s">
+        <v>1230</v>
       </c>
       <c r="B198" s="5">
         <v>724</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="8" t="s">
-        <v>1239</v>
+      <c r="A199" s="6" t="s">
+        <v>1231</v>
       </c>
       <c r="B199" s="5">
         <v>725</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="8" t="s">
-        <v>1240</v>
+      <c r="A200" s="6" t="s">
+        <v>1232</v>
       </c>
       <c r="B200" s="5">
         <v>726</v>
@@ -8831,83 +8831,83 @@
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" s="8" t="s">
+      <c r="A210" s="6" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="6" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="6" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="6" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="6" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="6" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="6" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="6" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B217" s="6" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="6" t="s">
         <v>1241</v>
       </c>
-      <c r="B210" s="5" t="s">
-        <v>1502</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" s="8" t="s">
+      <c r="B218" s="6" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="6" t="s">
         <v>1242</v>
       </c>
-      <c r="B211" s="5" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" s="8" t="s">
-        <v>1243</v>
-      </c>
-      <c r="B212" s="5" t="s">
-        <v>1504</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" s="8" t="s">
-        <v>1244</v>
-      </c>
-      <c r="B213" s="5" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" s="8" t="s">
-        <v>1245</v>
-      </c>
-      <c r="B214" s="5" t="s">
-        <v>1506</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" s="8" t="s">
-        <v>1246</v>
-      </c>
-      <c r="B215" s="5" t="s">
-        <v>1507</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" s="8" t="s">
-        <v>1247</v>
-      </c>
-      <c r="B216" s="5" t="s">
-        <v>1508</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="8" t="s">
-        <v>1248</v>
-      </c>
-      <c r="B217" s="8" t="s">
-        <v>1509</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="8" t="s">
-        <v>1249</v>
-      </c>
-      <c r="B218" s="8" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="8" t="s">
-        <v>1250</v>
-      </c>
-      <c r="B219" s="8" t="s">
-        <v>1511</v>
+      <c r="B219" s="6" t="s">
+        <v>1495</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -8939,119 +8939,119 @@
         <v>278</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>1512</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="5" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>1460</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B225" s="5" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="6" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B226" s="5" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="6" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B227" s="5" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="6" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B228" s="5" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="6" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B229" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="6" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B230" s="5" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="6" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B231" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="6" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B232" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="6" t="s">
         <v>1252</v>
       </c>
-      <c r="B225" s="5" t="s">
-        <v>1461</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" s="8" t="s">
+      <c r="B233" s="6" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="6" t="s">
         <v>1253</v>
       </c>
-      <c r="B226" s="5" t="s">
-        <v>1513</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" s="8" t="s">
-        <v>1254</v>
-      </c>
-      <c r="B227" s="5" t="s">
-        <v>1514</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" s="8" t="s">
-        <v>1255</v>
-      </c>
-      <c r="B228" s="5" t="s">
-        <v>1515</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" s="8" t="s">
-        <v>1256</v>
-      </c>
-      <c r="B229" s="5" t="s">
-        <v>1516</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" s="8" t="s">
-        <v>1257</v>
-      </c>
-      <c r="B230" s="5" t="s">
-        <v>1517</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" s="8" t="s">
-        <v>1258</v>
-      </c>
-      <c r="B231" s="5" t="s">
-        <v>1518</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" s="8" t="s">
-        <v>1259</v>
-      </c>
-      <c r="B232" s="5" t="s">
-        <v>1519</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="8" t="s">
-        <v>1260</v>
-      </c>
-      <c r="B233" s="8" t="s">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="8" t="s">
-        <v>1261</v>
-      </c>
-      <c r="B234" s="8" t="s">
-        <v>1521</v>
+      <c r="B234" s="6" t="s">
+        <v>1505</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
-        <v>1262</v>
+        <v>1254</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>1462</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
-        <v>1263</v>
+        <v>1255</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>1463</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="8" t="s">
-        <v>1523</v>
-      </c>
-      <c r="B237" s="8" t="s">
-        <v>1522</v>
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="6" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B237" s="6" t="s">
+        <v>1506</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
@@ -9075,95 +9075,95 @@
         <v>281</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>1525</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="s">
-        <v>1524</v>
+        <v>1508</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>1524</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" s="8" t="s">
+      <c r="A242" s="6" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B242" s="5" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="6" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B243" s="5" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="6" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B244" s="5" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="6" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="6" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B246" s="5" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="6" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B247" s="5" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="6" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="6" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B249" s="6" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="6" t="s">
         <v>1264</v>
       </c>
-      <c r="B242" s="5" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" s="8" t="s">
+      <c r="B250" s="6" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="6" t="s">
         <v>1265</v>
       </c>
-      <c r="B243" s="5" t="s">
-        <v>1527</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" s="8" t="s">
-        <v>1266</v>
-      </c>
-      <c r="B244" s="5" t="s">
-        <v>1528</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" s="8" t="s">
-        <v>1267</v>
-      </c>
-      <c r="B245" s="5" t="s">
-        <v>1529</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" s="8" t="s">
-        <v>1268</v>
-      </c>
-      <c r="B246" s="5" t="s">
-        <v>1530</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" s="8" t="s">
-        <v>1269</v>
-      </c>
-      <c r="B247" s="5" t="s">
-        <v>1531</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" s="8" t="s">
-        <v>1270</v>
-      </c>
-      <c r="B248" s="5" t="s">
-        <v>1532</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="8" t="s">
-        <v>1271</v>
-      </c>
-      <c r="B249" s="8" t="s">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="8" t="s">
-        <v>1272</v>
-      </c>
-      <c r="B250" s="8" t="s">
-        <v>1534</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="8" t="s">
-        <v>1273</v>
-      </c>
-      <c r="B251" s="8" t="s">
-        <v>1535</v>
+      <c r="B251" s="6" t="s">
+        <v>1519</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
@@ -9190,12 +9190,12 @@
         <v>284</v>
       </c>
     </row>
-    <row r="255" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="8" t="s">
-        <v>1274</v>
-      </c>
-      <c r="B255" s="8" t="s">
-        <v>1536</v>
+    <row r="255" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="6" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B255" s="6" t="s">
+        <v>1520</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
@@ -9215,59 +9215,59 @@
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="8" t="s">
-        <v>1275</v>
+      <c r="A258" s="6" t="s">
+        <v>1267</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>1537</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="8" t="s">
-        <v>1276</v>
+      <c r="A259" s="6" t="s">
+        <v>1268</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>1538</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260" s="8" t="s">
-        <v>1277</v>
+      <c r="A260" s="6" t="s">
+        <v>1269</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>1539</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" s="8" t="s">
-        <v>1278</v>
+      <c r="A261" s="6" t="s">
+        <v>1270</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>1540</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" s="8" t="s">
-        <v>1279</v>
+      <c r="A262" s="6" t="s">
+        <v>1271</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>1541</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" s="8" t="s">
-        <v>1280</v>
+      <c r="A263" s="6" t="s">
+        <v>1272</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>1542</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" s="8" t="s">
-        <v>1281</v>
+      <c r="A264" s="6" t="s">
+        <v>1273</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>1543</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
@@ -9343,63 +9343,63 @@
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" s="13" t="s">
-        <v>1081</v>
-      </c>
-      <c r="B274" s="14" t="s">
-        <v>1544</v>
+      <c r="A274" s="11" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B274" s="12" t="s">
+        <v>1679</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" s="8" t="s">
-        <v>1082</v>
+      <c r="A275" s="6" t="s">
+        <v>1664</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>1545</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" s="8" t="s">
-        <v>1088</v>
+      <c r="A276" s="6" t="s">
+        <v>1665</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>1546</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" s="8" t="s">
-        <v>1083</v>
+      <c r="A277" s="6" t="s">
+        <v>1666</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>1547</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" s="8" t="s">
-        <v>1084</v>
+      <c r="A278" s="6" t="s">
+        <v>1667</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>1548</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" s="8" t="s">
-        <v>1085</v>
+      <c r="A279" s="6" t="s">
+        <v>1668</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>1549</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" s="8" t="s">
-        <v>1086</v>
+      <c r="A280" s="6" t="s">
+        <v>1669</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>1550</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" s="8" t="s">
+      <c r="A281" s="6" t="s">
         <v>293</v>
       </c>
       <c r="B281" s="5" t="s">
@@ -9407,7 +9407,7 @@
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" s="8" t="s">
+      <c r="A282" s="6" t="s">
         <v>294</v>
       </c>
       <c r="B282" s="5" t="s">
@@ -9415,7 +9415,7 @@
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" s="8" t="s">
+      <c r="A283" s="6" t="s">
         <v>295</v>
       </c>
       <c r="B283" s="5" t="s">
@@ -9423,7 +9423,7 @@
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" s="8" t="s">
+      <c r="A284" s="6" t="s">
         <v>296</v>
       </c>
       <c r="B284" s="5" t="s">
@@ -9431,7 +9431,7 @@
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" s="8" t="s">
+      <c r="A285" s="6" t="s">
         <v>297</v>
       </c>
       <c r="B285" s="5" t="s">
@@ -9439,7 +9439,7 @@
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" s="8" t="s">
+      <c r="A286" s="6" t="s">
         <v>298</v>
       </c>
       <c r="B286" s="5" t="s">
@@ -9447,7 +9447,7 @@
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" s="8" t="s">
+      <c r="A287" s="6" t="s">
         <v>299</v>
       </c>
       <c r="B287" s="5" t="s">
@@ -9455,7 +9455,7 @@
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" s="8" t="s">
+      <c r="A288" s="6" t="s">
         <v>300</v>
       </c>
       <c r="B288" s="5" t="s">
@@ -9463,71 +9463,71 @@
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289" s="13" t="s">
-        <v>1087</v>
-      </c>
-      <c r="B289" s="14" t="s">
-        <v>1551</v>
+      <c r="A289" s="11" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B289" s="12" t="s">
+        <v>1686</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290" s="15" t="s">
-        <v>1282</v>
-      </c>
-      <c r="B290" s="16" t="s">
-        <v>1552</v>
+      <c r="A290" s="13" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B290" s="14" t="s">
+        <v>1687</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291" s="8" t="s">
-        <v>1283</v>
+      <c r="A291" s="6" t="s">
+        <v>1672</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>1553</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292" s="8" t="s">
-        <v>1284</v>
+      <c r="A292" s="6" t="s">
+        <v>1673</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>1554</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A293" s="8" t="s">
-        <v>1285</v>
+      <c r="A293" s="6" t="s">
+        <v>1674</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>1555</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A294" s="8" t="s">
-        <v>1286</v>
+      <c r="A294" s="6" t="s">
+        <v>1675</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>1556</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A295" s="8" t="s">
-        <v>1287</v>
+      <c r="A295" s="6" t="s">
+        <v>1676</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>1557</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A296" s="8" t="s">
-        <v>1288</v>
+      <c r="A296" s="6" t="s">
+        <v>1677</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>1558</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A297" s="8" t="s">
+      <c r="A297" s="6" t="s">
         <v>301</v>
       </c>
       <c r="B297" s="5" t="s">
@@ -9535,7 +9535,7 @@
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A298" s="8" t="s">
+      <c r="A298" s="6" t="s">
         <v>302</v>
       </c>
       <c r="B298" s="5" t="s">
@@ -9543,7 +9543,7 @@
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A299" s="8" t="s">
+      <c r="A299" s="6" t="s">
         <v>303</v>
       </c>
       <c r="B299" s="5" t="s">
@@ -9551,7 +9551,7 @@
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A300" s="8" t="s">
+      <c r="A300" s="6" t="s">
         <v>304</v>
       </c>
       <c r="B300" s="5" t="s">
@@ -9559,7 +9559,7 @@
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A301" s="8" t="s">
+      <c r="A301" s="6" t="s">
         <v>305</v>
       </c>
       <c r="B301" s="5" t="s">
@@ -9567,7 +9567,7 @@
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A302" s="8" t="s">
+      <c r="A302" s="6" t="s">
         <v>306</v>
       </c>
       <c r="B302" s="5" t="s">
@@ -9575,7 +9575,7 @@
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A303" s="8" t="s">
+      <c r="A303" s="6" t="s">
         <v>307</v>
       </c>
       <c r="B303" s="5" t="s">
@@ -9583,7 +9583,7 @@
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A304" s="8" t="s">
+      <c r="A304" s="6" t="s">
         <v>308</v>
       </c>
       <c r="B304" s="5" t="s">
@@ -9591,11 +9591,11 @@
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A305" s="15" t="s">
-        <v>1289</v>
-      </c>
-      <c r="B305" s="16" t="s">
-        <v>1559</v>
+      <c r="A305" s="13" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B305" s="14" t="s">
+        <v>1694</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
@@ -10366,36 +10366,36 @@
         <v>389</v>
       </c>
     </row>
-    <row r="402" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A402" s="8" t="s">
-        <v>1089</v>
-      </c>
-      <c r="B402" s="8" t="s">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="403" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A403" s="8" t="s">
-        <v>1090</v>
-      </c>
-      <c r="B403" s="8" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A404" s="8" t="s">
-        <v>1564</v>
-      </c>
-      <c r="B404" s="8" t="s">
-        <v>1562</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A405" s="8" t="s">
-        <v>1565</v>
-      </c>
-      <c r="B405" s="8" t="s">
-        <v>1563</v>
+    <row r="402" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A402" s="6" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B402" s="6" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A403" s="6" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B403" s="6" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A404" s="6" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B404" s="6" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A405" s="6" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B405" s="6" t="s">
+        <v>1531</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
@@ -10495,299 +10495,299 @@
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A418" s="8" t="s">
-        <v>1347</v>
+      <c r="A418" s="6" t="s">
+        <v>1331</v>
       </c>
       <c r="B418" s="5" t="s">
-        <v>1566</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A419" s="8" t="s">
-        <v>1348</v>
+      <c r="A419" s="6" t="s">
+        <v>1332</v>
       </c>
       <c r="B419" s="5" t="s">
-        <v>1567</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A420" s="8" t="s">
-        <v>1349</v>
+      <c r="A420" s="6" t="s">
+        <v>1333</v>
       </c>
       <c r="B420" s="5" t="s">
-        <v>1568</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A421" s="8" t="s">
-        <v>1350</v>
+      <c r="A421" s="6" t="s">
+        <v>1334</v>
       </c>
       <c r="B421" s="5" t="s">
-        <v>1569</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A422" s="8" t="s">
-        <v>1351</v>
+      <c r="A422" s="6" t="s">
+        <v>1335</v>
       </c>
       <c r="B422" s="5" t="s">
-        <v>1570</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A423" s="8" t="s">
-        <v>1352</v>
+      <c r="A423" s="6" t="s">
+        <v>1336</v>
       </c>
       <c r="B423" s="5" t="s">
-        <v>1571</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A424" s="8" t="s">
-        <v>1353</v>
+      <c r="A424" s="6" t="s">
+        <v>1337</v>
       </c>
       <c r="B424" s="5" t="s">
-        <v>1572</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A425" s="8" t="s">
-        <v>1354</v>
+      <c r="A425" s="6" t="s">
+        <v>1338</v>
       </c>
       <c r="B425" s="5" t="s">
-        <v>1573</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A426" s="8" t="s">
-        <v>1355</v>
+      <c r="A426" s="6" t="s">
+        <v>1339</v>
       </c>
       <c r="B426" s="5" t="s">
-        <v>1574</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A427" s="8" t="s">
-        <v>1356</v>
+      <c r="A427" s="6" t="s">
+        <v>1340</v>
       </c>
       <c r="B427" s="5" t="s">
-        <v>1575</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A428" s="8" t="s">
-        <v>1357</v>
+      <c r="A428" s="6" t="s">
+        <v>1341</v>
       </c>
       <c r="B428" s="5" t="s">
-        <v>1576</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A429" s="8" t="s">
-        <v>1358</v>
+      <c r="A429" s="6" t="s">
+        <v>1342</v>
       </c>
       <c r="B429" s="5" t="s">
-        <v>1577</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A430" s="8" t="s">
-        <v>1359</v>
+      <c r="A430" s="6" t="s">
+        <v>1343</v>
       </c>
       <c r="B430" s="5" t="s">
-        <v>1578</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A431" s="8" t="s">
-        <v>1360</v>
+      <c r="A431" s="6" t="s">
+        <v>1344</v>
       </c>
       <c r="B431" s="5" t="s">
-        <v>1579</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A432" s="8" t="s">
-        <v>1361</v>
+      <c r="A432" s="6" t="s">
+        <v>1345</v>
       </c>
       <c r="B432" s="5" t="s">
-        <v>1580</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A433" s="8" t="s">
-        <v>1362</v>
+      <c r="A433" s="6" t="s">
+        <v>1346</v>
       </c>
       <c r="B433" s="5" t="s">
-        <v>1581</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A434" s="8" t="s">
-        <v>1331</v>
+      <c r="A434" s="6" t="s">
+        <v>1315</v>
       </c>
       <c r="B434" s="5" t="s">
         <v>811</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A435" s="8" t="s">
-        <v>1332</v>
+      <c r="A435" s="6" t="s">
+        <v>1316</v>
       </c>
       <c r="B435" s="5" t="s">
         <v>812</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A436" s="8" t="s">
-        <v>1333</v>
+      <c r="A436" s="6" t="s">
+        <v>1317</v>
       </c>
       <c r="B436" s="5" t="s">
         <v>813</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A437" s="8" t="s">
-        <v>1334</v>
+      <c r="A437" s="6" t="s">
+        <v>1318</v>
       </c>
       <c r="B437" s="5" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A438" s="8" t="s">
-        <v>1335</v>
+      <c r="A438" s="6" t="s">
+        <v>1319</v>
       </c>
       <c r="B438" s="5" t="s">
         <v>815</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A439" s="8" t="s">
-        <v>1336</v>
+      <c r="A439" s="6" t="s">
+        <v>1320</v>
       </c>
       <c r="B439" s="5" t="s">
         <v>816</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A440" s="8" t="s">
-        <v>1337</v>
+      <c r="A440" s="6" t="s">
+        <v>1321</v>
       </c>
       <c r="B440" s="5" t="s">
         <v>817</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A441" s="8" t="s">
-        <v>1338</v>
+      <c r="A441" s="6" t="s">
+        <v>1322</v>
       </c>
       <c r="B441" s="5" t="s">
         <v>818</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A442" s="8" t="s">
-        <v>1339</v>
+      <c r="A442" s="6" t="s">
+        <v>1323</v>
       </c>
       <c r="B442" s="5" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A443" s="8" t="s">
-        <v>1340</v>
+      <c r="A443" s="6" t="s">
+        <v>1324</v>
       </c>
       <c r="B443" s="5" t="s">
         <v>820</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A444" s="8" t="s">
-        <v>1341</v>
+      <c r="A444" s="6" t="s">
+        <v>1325</v>
       </c>
       <c r="B444" s="5" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A445" s="8" t="s">
-        <v>1342</v>
+      <c r="A445" s="6" t="s">
+        <v>1326</v>
       </c>
       <c r="B445" s="5" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A446" s="8" t="s">
-        <v>1343</v>
+      <c r="A446" s="6" t="s">
+        <v>1327</v>
       </c>
       <c r="B446" s="5" t="s">
         <v>823</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A447" s="8" t="s">
-        <v>1344</v>
+      <c r="A447" s="6" t="s">
+        <v>1328</v>
       </c>
       <c r="B447" s="5" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A448" s="8" t="s">
-        <v>1345</v>
+      <c r="A448" s="6" t="s">
+        <v>1329</v>
       </c>
       <c r="B448" s="5" t="s">
         <v>825</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A449" s="8" t="s">
-        <v>1346</v>
+      <c r="A449" s="6" t="s">
+        <v>1330</v>
       </c>
       <c r="B449" s="5" t="s">
         <v>826</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A450" s="8" t="s">
-        <v>1326</v>
+      <c r="A450" s="6" t="s">
+        <v>1310</v>
       </c>
       <c r="B450" s="5" t="s">
-        <v>1582</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A451" s="8" t="s">
-        <v>1327</v>
+      <c r="A451" s="6" t="s">
+        <v>1311</v>
       </c>
       <c r="B451" s="5" t="s">
-        <v>1583</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A452" s="8" t="s">
-        <v>1328</v>
+      <c r="A452" s="6" t="s">
+        <v>1312</v>
       </c>
       <c r="B452" s="5" t="s">
-        <v>1584</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A453" s="8" t="s">
-        <v>1329</v>
+      <c r="A453" s="6" t="s">
+        <v>1313</v>
       </c>
       <c r="B453" s="5" t="s">
-        <v>1585</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A454" s="8" t="s">
-        <v>1330</v>
+      <c r="A454" s="6" t="s">
+        <v>1314</v>
       </c>
       <c r="B454" s="5" t="s">
-        <v>1586</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
@@ -10879,43 +10879,43 @@
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A466" s="8" t="s">
-        <v>1321</v>
+      <c r="A466" s="6" t="s">
+        <v>1305</v>
       </c>
       <c r="B466" s="5" t="s">
-        <v>1587</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A467" s="8" t="s">
-        <v>1322</v>
+      <c r="A467" s="6" t="s">
+        <v>1306</v>
       </c>
       <c r="B467" s="5" t="s">
-        <v>1588</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A468" s="8" t="s">
-        <v>1323</v>
+      <c r="A468" s="6" t="s">
+        <v>1307</v>
       </c>
       <c r="B468" s="5" t="s">
-        <v>1589</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A469" s="8" t="s">
-        <v>1324</v>
+      <c r="A469" s="6" t="s">
+        <v>1308</v>
       </c>
       <c r="B469" s="5" t="s">
-        <v>1590</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A470" s="8" t="s">
-        <v>1325</v>
+      <c r="A470" s="6" t="s">
+        <v>1309</v>
       </c>
       <c r="B470" s="5" t="s">
-        <v>1591</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
@@ -11007,51 +11007,51 @@
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A482" s="8" t="s">
-        <v>1315</v>
+      <c r="A482" s="6" t="s">
+        <v>1299</v>
       </c>
       <c r="B482" s="5" t="s">
-        <v>1592</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A483" s="8" t="s">
-        <v>1316</v>
+      <c r="A483" s="6" t="s">
+        <v>1300</v>
       </c>
       <c r="B483" s="5" t="s">
-        <v>1593</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A484" s="8" t="s">
-        <v>1317</v>
+      <c r="A484" s="6" t="s">
+        <v>1301</v>
       </c>
       <c r="B484" s="5" t="s">
-        <v>1594</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A485" s="8" t="s">
-        <v>1318</v>
+      <c r="A485" s="6" t="s">
+        <v>1302</v>
       </c>
       <c r="B485" s="5" t="s">
-        <v>1595</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A486" s="8" t="s">
-        <v>1319</v>
+      <c r="A486" s="6" t="s">
+        <v>1303</v>
       </c>
       <c r="B486" s="5" t="s">
-        <v>1596</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A487" s="8" t="s">
-        <v>1320</v>
+      <c r="A487" s="6" t="s">
+        <v>1304</v>
       </c>
       <c r="B487" s="5" t="s">
-        <v>1597</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
@@ -11059,7 +11059,7 @@
         <v>418</v>
       </c>
       <c r="B488" s="5" t="s">
-        <v>1598</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
@@ -11067,7 +11067,7 @@
         <v>419</v>
       </c>
       <c r="B489" s="5" t="s">
-        <v>1599</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
@@ -11075,7 +11075,7 @@
         <v>420</v>
       </c>
       <c r="B490" s="5" t="s">
-        <v>1600</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
@@ -11083,7 +11083,7 @@
         <v>421</v>
       </c>
       <c r="B491" s="5" t="s">
-        <v>1601</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
@@ -11135,51 +11135,51 @@
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A498" s="8" t="s">
-        <v>1309</v>
+      <c r="A498" s="6" t="s">
+        <v>1293</v>
       </c>
       <c r="B498" s="5" t="s">
-        <v>1602</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A499" s="8" t="s">
-        <v>1310</v>
+      <c r="A499" s="6" t="s">
+        <v>1294</v>
       </c>
       <c r="B499" s="5" t="s">
-        <v>1603</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A500" s="8" t="s">
-        <v>1311</v>
+      <c r="A500" s="6" t="s">
+        <v>1295</v>
       </c>
       <c r="B500" s="5" t="s">
-        <v>1606</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A501" s="8" t="s">
-        <v>1312</v>
+      <c r="A501" s="6" t="s">
+        <v>1296</v>
       </c>
       <c r="B501" s="5" t="s">
-        <v>1607</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A502" s="8" t="s">
-        <v>1313</v>
+      <c r="A502" s="6" t="s">
+        <v>1297</v>
       </c>
       <c r="B502" s="5" t="s">
-        <v>1604</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A503" s="8" t="s">
-        <v>1314</v>
+      <c r="A503" s="6" t="s">
+        <v>1298</v>
       </c>
       <c r="B503" s="5" t="s">
-        <v>1605</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
@@ -11391,19 +11391,19 @@
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A530" s="8" t="s">
-        <v>1299</v>
+      <c r="A530" s="6" t="s">
+        <v>1283</v>
       </c>
       <c r="B530" s="5" t="s">
-        <v>1608</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A531" s="8" t="s">
-        <v>1300</v>
+      <c r="A531" s="6" t="s">
+        <v>1284</v>
       </c>
       <c r="B531" s="5" t="s">
-        <v>1609</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
@@ -11431,35 +11431,35 @@
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A535" s="8" t="s">
-        <v>1301</v>
+      <c r="A535" s="6" t="s">
+        <v>1285</v>
       </c>
       <c r="B535" s="5" t="s">
-        <v>1610</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A536" s="8" t="s">
-        <v>1304</v>
+      <c r="A536" s="6" t="s">
+        <v>1288</v>
       </c>
       <c r="B536" s="5" t="s">
-        <v>1611</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A537" s="8" t="s">
-        <v>1302</v>
+      <c r="A537" s="6" t="s">
+        <v>1286</v>
       </c>
       <c r="B537" s="5" t="s">
-        <v>1612</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A538" s="8" t="s">
-        <v>1303</v>
+      <c r="A538" s="6" t="s">
+        <v>1287</v>
       </c>
       <c r="B538" s="5" t="s">
-        <v>1613</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
@@ -11471,35 +11471,35 @@
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A540" s="8" t="s">
-        <v>1305</v>
+      <c r="A540" s="6" t="s">
+        <v>1289</v>
       </c>
       <c r="B540" s="5" t="s">
-        <v>1614</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A541" s="8" t="s">
-        <v>1308</v>
+      <c r="A541" s="6" t="s">
+        <v>1292</v>
       </c>
       <c r="B541" s="5" t="s">
-        <v>1615</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A542" s="8" t="s">
-        <v>1306</v>
+      <c r="A542" s="6" t="s">
+        <v>1290</v>
       </c>
       <c r="B542" s="5" t="s">
-        <v>1616</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A543" s="8" t="s">
-        <v>1307</v>
+      <c r="A543" s="6" t="s">
+        <v>1291</v>
       </c>
       <c r="B543" s="5" t="s">
-        <v>1617</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.25">
@@ -11608,7 +11608,7 @@
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" s="5" t="s">
-        <v>1298</v>
+        <v>1282</v>
       </c>
       <c r="B557" s="5" t="s">
         <v>854</v>
@@ -11736,7 +11736,7 @@
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A573" s="5" t="s">
-        <v>1297</v>
+        <v>1281</v>
       </c>
       <c r="B573" s="5" t="s">
         <v>870</v>
@@ -11864,7 +11864,7 @@
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589" s="5" t="s">
-        <v>1296</v>
+        <v>1280</v>
       </c>
       <c r="B589" s="5" t="s">
         <v>886</v>
@@ -11992,7 +11992,7 @@
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A605" s="5" t="s">
-        <v>1295</v>
+        <v>1279</v>
       </c>
       <c r="B605" s="5" t="s">
         <v>902</v>
@@ -12632,7 +12632,7 @@
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A685" s="5" t="s">
-        <v>1294</v>
+        <v>1278</v>
       </c>
       <c r="B685" s="5" t="s">
         <v>934</v>
@@ -12760,7 +12760,7 @@
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A701" s="5" t="s">
-        <v>1293</v>
+        <v>1277</v>
       </c>
       <c r="B701" s="5" t="s">
         <v>950</v>
@@ -12888,7 +12888,7 @@
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A717" s="5" t="s">
-        <v>1292</v>
+        <v>1276</v>
       </c>
       <c r="B717" s="5" t="s">
         <v>966</v>
@@ -12992,7 +12992,7 @@
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A730" s="5" t="s">
-        <v>1290</v>
+        <v>1274</v>
       </c>
       <c r="B730" s="5" t="s">
         <v>979</v>
@@ -13016,7 +13016,7 @@
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A733" s="5" t="s">
-        <v>1291</v>
+        <v>1275</v>
       </c>
       <c r="B733" s="5" t="s">
         <v>982</v>
@@ -13567,48 +13567,48 @@
       </c>
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A802" s="8" t="s">
-        <v>1618</v>
+      <c r="A802" s="6" t="s">
+        <v>1586</v>
       </c>
       <c r="B802" s="5" t="s">
         <v>1003</v>
       </c>
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A803" s="8" t="s">
-        <v>1619</v>
+      <c r="A803" s="6" t="s">
+        <v>1587</v>
       </c>
       <c r="B803" s="5" t="s">
         <v>1004</v>
       </c>
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A804" s="8" t="s">
-        <v>1620</v>
+      <c r="A804" s="6" t="s">
+        <v>1588</v>
       </c>
       <c r="B804" s="5" t="s">
         <v>1005</v>
       </c>
     </row>
     <row r="805" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A805" s="8" t="s">
-        <v>1621</v>
+      <c r="A805" s="6" t="s">
+        <v>1589</v>
       </c>
       <c r="B805" s="5" t="s">
         <v>1006</v>
       </c>
     </row>
     <row r="806" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A806" s="8" t="s">
-        <v>1622</v>
+      <c r="A806" s="6" t="s">
+        <v>1590</v>
       </c>
       <c r="B806" s="5" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A807" s="8" t="s">
-        <v>1623</v>
+      <c r="A807" s="6" t="s">
+        <v>1591</v>
       </c>
       <c r="B807" s="5" t="s">
         <v>1008</v>
@@ -13631,48 +13631,48 @@
       </c>
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A810" s="8" t="s">
-        <v>1624</v>
+      <c r="A810" s="6" t="s">
+        <v>1592</v>
       </c>
       <c r="B810" s="5" t="s">
         <v>1011</v>
       </c>
     </row>
     <row r="811" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A811" s="8" t="s">
-        <v>1625</v>
+      <c r="A811" s="6" t="s">
+        <v>1593</v>
       </c>
       <c r="B811" s="5" t="s">
         <v>1012</v>
       </c>
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A812" s="8" t="s">
-        <v>1626</v>
+      <c r="A812" s="6" t="s">
+        <v>1594</v>
       </c>
       <c r="B812" s="5" t="s">
         <v>1013</v>
       </c>
     </row>
     <row r="813" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A813" s="8" t="s">
-        <v>1627</v>
+      <c r="A813" s="6" t="s">
+        <v>1595</v>
       </c>
       <c r="B813" s="5" t="s">
         <v>1014</v>
       </c>
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A814" s="8" t="s">
-        <v>1628</v>
+      <c r="A814" s="6" t="s">
+        <v>1596</v>
       </c>
       <c r="B814" s="5" t="s">
         <v>1015</v>
       </c>
     </row>
     <row r="815" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A815" s="8" t="s">
-        <v>1629</v>
+      <c r="A815" s="6" t="s">
+        <v>1597</v>
       </c>
       <c r="B815" s="5" t="s">
         <v>1016</v>
@@ -13694,147 +13694,147 @@
         <v>655</v>
       </c>
     </row>
-    <row r="818" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A818" s="8" t="s">
-        <v>1631</v>
-      </c>
-      <c r="B818" s="8" t="s">
-        <v>1647</v>
-      </c>
-    </row>
-    <row r="819" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A819" s="8" t="s">
-        <v>1632</v>
-      </c>
-      <c r="B819" s="8" t="s">
-        <v>1648</v>
-      </c>
-    </row>
-    <row r="820" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A820" s="8" t="s">
-        <v>1633</v>
-      </c>
-      <c r="B820" s="8" t="s">
-        <v>1649</v>
-      </c>
-    </row>
-    <row r="821" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A821" s="8">
+    <row r="818" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A818" s="6" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B818" s="6" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A819" s="6" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B819" s="6" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A820" s="6" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B820" s="6" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A821" s="6">
         <v>1113</v>
       </c>
-      <c r="B821" s="8">
+      <c r="B821" s="6">
         <v>1113</v>
       </c>
     </row>
-    <row r="822" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A822" s="8" t="s">
-        <v>1634</v>
-      </c>
-      <c r="B822" s="8" t="s">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="823" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A823" s="8" t="s">
-        <v>1635</v>
-      </c>
-      <c r="B823" s="8" t="s">
-        <v>1651</v>
-      </c>
-    </row>
-    <row r="824" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A824" s="8" t="s">
-        <v>1636</v>
-      </c>
-      <c r="B824" s="8" t="s">
-        <v>1652</v>
-      </c>
-    </row>
-    <row r="825" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A825" s="8" t="s">
-        <v>1637</v>
-      </c>
-      <c r="B825" s="8" t="s">
-        <v>1653</v>
-      </c>
-    </row>
-    <row r="826" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A826" s="8" t="s">
-        <v>1638</v>
-      </c>
-      <c r="B826" s="8" t="s">
-        <v>1654</v>
-      </c>
-    </row>
-    <row r="827" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A827" s="8" t="s">
-        <v>1639</v>
-      </c>
-      <c r="B827" s="8" t="s">
-        <v>1655</v>
-      </c>
-    </row>
-    <row r="828" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A828" s="8" t="s">
-        <v>1640</v>
-      </c>
-      <c r="B828" s="8" t="s">
-        <v>1656</v>
-      </c>
-    </row>
-    <row r="829" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A829" s="8" t="s">
-        <v>1630</v>
-      </c>
-      <c r="B829" s="8" t="s">
-        <v>1630</v>
-      </c>
-    </row>
-    <row r="830" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A830" s="8" t="s">
-        <v>1641</v>
-      </c>
-      <c r="B830" s="8" t="s">
-        <v>1657</v>
-      </c>
-    </row>
-    <row r="831" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A831" s="8" t="s">
-        <v>1642</v>
-      </c>
-      <c r="B831" s="8" t="s">
-        <v>1658</v>
-      </c>
-    </row>
-    <row r="832" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A832" s="8" t="s">
-        <v>1643</v>
-      </c>
-      <c r="B832" s="8" t="s">
+    <row r="822" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A822" s="6" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B822" s="6" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A823" s="6" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B823" s="6" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A824" s="6" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B824" s="6" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A825" s="6" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B825" s="6" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A826" s="6" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B826" s="6" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A827" s="6" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B827" s="6" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A828" s="6" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B828" s="6" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A829" s="6" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B829" s="6" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A830" s="6" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B830" s="6" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A831" s="6" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B831" s="6" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A832" s="6" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B832" s="6" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A833" s="6" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B833" s="6" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A834" s="6" t="s">
         <v>1659</v>
       </c>
-    </row>
-    <row r="833" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A833" s="8" t="s">
-        <v>1644</v>
-      </c>
-      <c r="B833" s="8" t="s">
+      <c r="B834" s="6" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A835" s="6" t="s">
         <v>1660</v>
       </c>
-    </row>
-    <row r="834" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A834" s="8" t="s">
-        <v>1645</v>
-      </c>
-      <c r="B834" s="8" t="s">
-        <v>1661</v>
-      </c>
-    </row>
-    <row r="835" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A835" s="8" t="s">
-        <v>1646</v>
-      </c>
-      <c r="B835" s="8" t="s">
+      <c r="B835" s="6" t="s">
         <v>1662</v>
       </c>
     </row>
@@ -14981,6 +14981,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14988,7 +14989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9467E7BE-580E-48BC-AEF4-D3304B004A58}">
   <dimension ref="J5:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
@@ -14999,162 +15000,162 @@
   <sheetData>
     <row r="5" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J5" t="s">
-        <v>1663</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="6" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J6" t="s">
-        <v>1664</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="7" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J7" t="s">
-        <v>1665</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="8" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J8" t="s">
-        <v>1666</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="9" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J9" t="s">
-        <v>1667</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="10" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J10" t="s">
-        <v>1668</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="11" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J11" t="s">
-        <v>1669</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="12" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J12" t="s">
-        <v>1670</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="13" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J13" t="s">
-        <v>1671</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="14" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J14" t="s">
-        <v>1672</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="15" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J15" t="s">
-        <v>1673</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="16" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J16" t="s">
-        <v>1674</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="17" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J17" t="s">
-        <v>1675</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="18" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J18" t="s">
-        <v>1676</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="19" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J19" t="s">
-        <v>1677</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="20" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J20" t="s">
-        <v>1678</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="21" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J21" t="s">
-        <v>1679</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="22" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J22" t="s">
-        <v>1680</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="23" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J23" t="s">
-        <v>1681</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="24" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J24" t="s">
-        <v>1682</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="25" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J25" t="s">
-        <v>1683</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="26" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
-        <v>1684</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="27" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J27" t="s">
-        <v>1685</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="28" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J28" t="s">
-        <v>1686</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="29" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J29" t="s">
-        <v>1687</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="30" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J30" t="s">
-        <v>1688</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="31" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J31" t="s">
-        <v>1689</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="32" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J32" t="s">
-        <v>1690</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="33" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J33" t="s">
-        <v>1691</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="34" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J34" t="s">
-        <v>1692</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="35" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J35" t="s">
-        <v>1693</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="36" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J36" t="s">
-        <v>1694</v>
+        <v>1658</v>
       </c>
     </row>
   </sheetData>

--- a/03.MAP/BENDING MAP.xlsx
+++ b/03.MAP/BENDING MAP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HLC\Desktop\GitHub\ITMV-BENDING\03.MAP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITM_\96.BENDING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A99CD2B-569F-401B-8360-073B5133C258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB93BCF2-C59B-4857-80DC-9AF392EF6E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{94634242-89F8-4AD8-AADD-B47026808F4E}"/>
+    <workbookView xWindow="2595" yWindow="-14025" windowWidth="21600" windowHeight="11295" xr2:uid="{94634242-89F8-4AD8-AADD-B47026808F4E}"/>
   </bookViews>
   <sheets>
     <sheet name="BUFFER IO" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="1695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2040" uniqueCount="1742">
   <si>
     <t>P05A</t>
   </si>
@@ -3039,48 +3039,12 @@
     <t>106F.[ĐẦU RA]</t>
   </si>
   <si>
-    <t>1100.BÊN TRÁI NHẤN CÔNG TÁC KHỞI ĐỘNG .</t>
-  </si>
-  <si>
-    <t>1101.BÊN TRÁI CƠ CHẾ TỰ ĐỘNG SẴN SÀNG.</t>
-  </si>
-  <si>
-    <t>1102.BÊN TRÁI NHẤN CÔNG TẮC BẮT ĐẦU .</t>
-  </si>
-  <si>
-    <t>1103.BÊN TRÁI CHẠY TỰ ĐỘNG...</t>
-  </si>
-  <si>
-    <t>1104.BÊN TRÁI CHẠY CHẾ ĐỘ STEP .</t>
-  </si>
-  <si>
-    <t>1104.BÊN TRÁI CHẠY THỬ….</t>
-  </si>
-  <si>
     <t>1106.VUI LÒNG NHẬP THÔNG TIN LOT.</t>
   </si>
   <si>
     <t>1107.CHẠY CHẾ ĐỘ CYCLE ...</t>
   </si>
   <si>
-    <t>1108.BÊN PHẢI NHẤN CÔNG TÁC KHỞI ĐỘNG .</t>
-  </si>
-  <si>
-    <t>1109.BÊN PHẢI CƠ CHẾ TỰ ĐỘNG SẴN SÀNG.</t>
-  </si>
-  <si>
-    <t>110A.BÊN PHẢI NHẤN CÔNG TẮC BẮT ĐẦU .</t>
-  </si>
-  <si>
-    <t>110B.BÊN PHẢI CHẠY TỰ ĐỘNG...</t>
-  </si>
-  <si>
-    <t>110C.BÊN PHẢI CHẠY CHẾ ĐỘ STEP .</t>
-  </si>
-  <si>
-    <t>110D.BÊN PHẢI CHẠY THỬ….</t>
-  </si>
-  <si>
     <t>1160.[ĐẦU VÀO]ĐỘNG CỢ SERVO Z HẠ TRAY VỀ VỊ TRÍ BAN ĐẦU.</t>
   </si>
   <si>
@@ -4911,102 +4875,6 @@
     <t>111F.BÊN TRÁI 2nd Axis#16 T ĐỘNG CƠ SERVO VỀ VỊ TRÍ BAN ĐẦU.</t>
   </si>
   <si>
-    <t>L_4th STEP#00</t>
-  </si>
-  <si>
-    <t>L_4th STEP#01</t>
-  </si>
-  <si>
-    <t>L_4th STEP#02</t>
-  </si>
-  <si>
-    <t>L_4th STEP#03</t>
-  </si>
-  <si>
-    <t>L_4th STEP#04</t>
-  </si>
-  <si>
-    <t>L_4th STEP#05</t>
-  </si>
-  <si>
-    <t>L_4th STEP#06</t>
-  </si>
-  <si>
-    <t>L_4th STEP#07</t>
-  </si>
-  <si>
-    <t>L_4th STEP#08</t>
-  </si>
-  <si>
-    <t>L_4th STEP#09</t>
-  </si>
-  <si>
-    <t>L_4th STEP#10</t>
-  </si>
-  <si>
-    <t>L_4th STEP#11</t>
-  </si>
-  <si>
-    <t>L_4th STEP#12</t>
-  </si>
-  <si>
-    <t>L_4th STEP#13</t>
-  </si>
-  <si>
-    <t>L_4th STEP#14</t>
-  </si>
-  <si>
-    <t>L_4th STEP#15</t>
-  </si>
-  <si>
-    <t>L_4th STEP#16</t>
-  </si>
-  <si>
-    <t>L_4th STEP#17</t>
-  </si>
-  <si>
-    <t>L_4th STEP#18</t>
-  </si>
-  <si>
-    <t>L_4th STEP#19</t>
-  </si>
-  <si>
-    <t>L_4th STEP#20</t>
-  </si>
-  <si>
-    <t>L_4th STEP#21</t>
-  </si>
-  <si>
-    <t>L_4th STEP#22</t>
-  </si>
-  <si>
-    <t>L_4th STEP#23</t>
-  </si>
-  <si>
-    <t>L_4th STEP#24</t>
-  </si>
-  <si>
-    <t>L_4th STEP#25</t>
-  </si>
-  <si>
-    <t>L_4th STEP#26</t>
-  </si>
-  <si>
-    <t>L_4th STEP#27</t>
-  </si>
-  <si>
-    <t>L_4th STEP#28</t>
-  </si>
-  <si>
-    <t>L_4th STEP#29</t>
-  </si>
-  <si>
-    <t>L_4th STEP#30</t>
-  </si>
-  <si>
-    <t>L_4th STEP#31</t>
-  </si>
-  <si>
     <t>1120.RIGHT 3rd Axis#17 Z SERVO MOTOR HOMING.</t>
   </si>
   <si>
@@ -5113,6 +4981,279 @@
   </si>
   <si>
     <t>78F.BÊN TRÁI 3rd Axis#18 Z ĐỘNG CƠ SERVO QUÁ TẢI.</t>
+  </si>
+  <si>
+    <t>1100.BÊN PHẢI NHẤN CÔNG TÁC KHỞI ĐỘNG .</t>
+  </si>
+  <si>
+    <t>1101.BÊN PHẢI CƠ CHẾ TỰ ĐỘNG SẴN SÀNG.</t>
+  </si>
+  <si>
+    <t>1102.BÊN PHẢI NHẤN CÔNG TẮC BẮT ĐẦU .</t>
+  </si>
+  <si>
+    <t>1103.BÊN PHẢI CHẠY TỰ ĐỘNG...</t>
+  </si>
+  <si>
+    <t>1104.BÊN PHẢI CHẠY CHẾ ĐỘ STEP .</t>
+  </si>
+  <si>
+    <t>1104.BÊN PHẢI CHẠY THỬ….</t>
+  </si>
+  <si>
+    <t>1108.BÊN TRÁI NHẤN CÔNG TÁC KHỞI ĐỘNG .</t>
+  </si>
+  <si>
+    <t>1109.BÊN TRÁI CƠ CHẾ TỰ ĐỘNG SẴN SÀNG.</t>
+  </si>
+  <si>
+    <t>110A.BÊN TRÁI NHẤN CÔNG TẮC BẮT ĐẦU .</t>
+  </si>
+  <si>
+    <t>110B.BÊN TRÁI CHẠY TỰ ĐỘNG...</t>
+  </si>
+  <si>
+    <t>110C.BÊN TRÁI CHẠY CHẾ ĐỘ STEP .</t>
+  </si>
+  <si>
+    <t>110D.BÊN TRÁI CHẠY THỬ….</t>
+  </si>
+  <si>
+    <t>STEP A¢Ò¡ÆC00</t>
+  </si>
+  <si>
+    <t>STEP A¢Ò¡ÆC01</t>
+  </si>
+  <si>
+    <t>STEP A¢Ò¡ÆC02</t>
+  </si>
+  <si>
+    <t>STEP A¢Ò¡ÆC03</t>
+  </si>
+  <si>
+    <t>STEP A¢Ò¡ÆC04</t>
+  </si>
+  <si>
+    <t>STEP A¢Ò¡ÆC05</t>
+  </si>
+  <si>
+    <t>STEP A¢Ò¡ÆC06</t>
+  </si>
+  <si>
+    <t>STEP A¢Ò¡ÆC07</t>
+  </si>
+  <si>
+    <t>STEP A¢Ò¡ÆC08</t>
+  </si>
+  <si>
+    <t>STEP A¢Ò¡ÆC09</t>
+  </si>
+  <si>
+    <t>STEP A¢Ò¡ÆC10</t>
+  </si>
+  <si>
+    <t>STEP A¢Ò¡ÆC11</t>
+  </si>
+  <si>
+    <t>STEP A¢Ò¡ÆC12</t>
+  </si>
+  <si>
+    <t>STEP A¢Ò¡ÆC13</t>
+  </si>
+  <si>
+    <t>STEP A¢Ò¡ÆC14</t>
+  </si>
+  <si>
+    <t>STEP A¢Ò¡ÆC15</t>
+  </si>
+  <si>
+    <t>STEP A¢Ò¡ÆC16</t>
+  </si>
+  <si>
+    <t>STEP A¢Ò¡ÆC17</t>
+  </si>
+  <si>
+    <t>STEP A¢Ò¡ÆC18</t>
+  </si>
+  <si>
+    <t>STEP A¢Ò¡ÆC19</t>
+  </si>
+  <si>
+    <t>STEP A¢Ò¡ÆC20</t>
+  </si>
+  <si>
+    <t>STEP A¢Ò¡ÆC21</t>
+  </si>
+  <si>
+    <t>STEP A¢Ò¡ÆC22</t>
+  </si>
+  <si>
+    <t>STEP A¢Ò¡ÆC23</t>
+  </si>
+  <si>
+    <t>STEP A¢Ò¡ÆC24</t>
+  </si>
+  <si>
+    <t>STEP A¢Ò¡ÆC25</t>
+  </si>
+  <si>
+    <t>STEP A¢Ò¡ÆC26</t>
+  </si>
+  <si>
+    <t>STEP A¢Ò¡ÆC27</t>
+  </si>
+  <si>
+    <t>STEP A¢Ò¡ÆC28</t>
+  </si>
+  <si>
+    <t>STEP A¢Ò¡ÆC29</t>
+  </si>
+  <si>
+    <t>STEP A¢Ò¡ÆC30</t>
+  </si>
+  <si>
+    <t>STEP A¢Ò¡ÆC31</t>
+  </si>
+  <si>
+    <t>R_P&amp;P STEP#00</t>
+  </si>
+  <si>
+    <t>R_P&amp;P STEP#01</t>
+  </si>
+  <si>
+    <t>R_P&amp;P STEP#02</t>
+  </si>
+  <si>
+    <t>R_P&amp;P STEP#03</t>
+  </si>
+  <si>
+    <t>R_P&amp;P STEP#04</t>
+  </si>
+  <si>
+    <t>R_P&amp;P STEP#05</t>
+  </si>
+  <si>
+    <t>R_P&amp;P STEP#06</t>
+  </si>
+  <si>
+    <t>R_P&amp;P STEP#07</t>
+  </si>
+  <si>
+    <t>R_P&amp;P STEP#08</t>
+  </si>
+  <si>
+    <t>R_P&amp;P STEP#09</t>
+  </si>
+  <si>
+    <t>R_P&amp;P STEP#10</t>
+  </si>
+  <si>
+    <t>R_P&amp;P STEP#11</t>
+  </si>
+  <si>
+    <t>R_P&amp;P STEP#12</t>
+  </si>
+  <si>
+    <t>R_P&amp;P STEP#13</t>
+  </si>
+  <si>
+    <t>R_P&amp;P STEP#14</t>
+  </si>
+  <si>
+    <t>R_P&amp;P STEP#15</t>
+  </si>
+  <si>
+    <t>R_P&amp;P STEP#16</t>
+  </si>
+  <si>
+    <t>R_P&amp;P STEP#17</t>
+  </si>
+  <si>
+    <t>R_P&amp;P STEP#18</t>
+  </si>
+  <si>
+    <t>R_P&amp;P STEP#19</t>
+  </si>
+  <si>
+    <t>R_P&amp;P STEP#20</t>
+  </si>
+  <si>
+    <t>R_P&amp;P STEP#21</t>
+  </si>
+  <si>
+    <t>R_P&amp;P STEP#22</t>
+  </si>
+  <si>
+    <t>R_P&amp;P STEP#23</t>
+  </si>
+  <si>
+    <t>R_P&amp;P STEP#24</t>
+  </si>
+  <si>
+    <t>R_P&amp;P STEP#25</t>
+  </si>
+  <si>
+    <t>R_P&amp;P STEP#26</t>
+  </si>
+  <si>
+    <t>R_P&amp;P STEP#27</t>
+  </si>
+  <si>
+    <t>R_P&amp;P STEP#28</t>
+  </si>
+  <si>
+    <t>R_P&amp;P STEP#29</t>
+  </si>
+  <si>
+    <t>R_P&amp;P STEP#30</t>
+  </si>
+  <si>
+    <t>R_P&amp;P STEP#31</t>
+  </si>
+  <si>
+    <t>R_In BUFF DET VAC ON</t>
+  </si>
+  <si>
+    <t>R_1st DET VAC ON</t>
+  </si>
+  <si>
+    <t>R_2nd DET VAC ON</t>
+  </si>
+  <si>
+    <t>R_3rd DET VAC ON</t>
+  </si>
+  <si>
+    <t>R_4th DET VAC ON</t>
+  </si>
+  <si>
+    <t>R_Out BUFF DET VAC ON</t>
+  </si>
+  <si>
+    <t>R_P&amp;P 1st DET VAC ON</t>
+  </si>
+  <si>
+    <t>R_P&amp;P 2nd DET VAC ON</t>
+  </si>
+  <si>
+    <t>R_P&amp;P 3rd DET VAC ON</t>
+  </si>
+  <si>
+    <t>R_P&amp;P 4th DET VAC ON</t>
+  </si>
+  <si>
+    <t>R_P&amp;P 5th DET VAC ON</t>
+  </si>
+  <si>
+    <t>R_1st ALIGN PRESSURE</t>
+  </si>
+  <si>
+    <t>R_2nd ALIGN PRESSURE</t>
+  </si>
+  <si>
+    <t>R_3rd ALIGN PRESSURE</t>
+  </si>
+  <si>
+    <t>R_4th ALIGN PRESSURE</t>
   </si>
 </sst>
 </file>
@@ -5157,7 +5298,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5185,6 +5326,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5216,7 +5363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5262,6 +5409,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5852,202 +6000,204 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F2D3F1-5AAF-47EB-8EAD-1437A33C28C8}">
   <dimension ref="B2:H13"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" topLeftCell="F19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AC43" sqref="AC43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="9" style="17"/>
+    <col min="6" max="6" width="15.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="17" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="17" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="B2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="B3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="17" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="B4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="17" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="B5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="17" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="B6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="17" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="B7" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="B8" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="17" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F10" t="s">
+      <c r="F10" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="17" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F11" t="s">
+      <c r="F11" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="17" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F12" t="s">
+      <c r="F12" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="17" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F13" t="s">
+      <c r="F13" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="17" t="s">
         <v>44</v>
       </c>
     </row>
@@ -7149,8 +7299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07762C5A-EB33-4D85-8AEA-75925E03B702}">
   <dimension ref="A1:B1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A262" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D283" sqref="D283"/>
+    <sheetView topLeftCell="A802" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A835" sqref="A835"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7162,7 +7312,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>1083</v>
+        <v>1071</v>
       </c>
       <c r="B1" s="9"/>
     </row>
@@ -7296,234 +7446,234 @@
     </row>
     <row r="18" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>1084</v>
+        <v>1072</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>1377</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>1085</v>
+        <v>1073</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>1378</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>1086</v>
+        <v>1074</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>1379</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="21" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>1087</v>
+        <v>1075</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>1380</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="22" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>1088</v>
+        <v>1076</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>1381</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="23" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>1089</v>
+        <v>1077</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>1382</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="24" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>1090</v>
+        <v>1078</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>1383</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="25" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>1091</v>
+        <v>1079</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>1384</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="26" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>1092</v>
+        <v>1080</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>1385</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="27" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>1093</v>
+        <v>1081</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>1386</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="28" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>1371</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="29" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>1095</v>
+        <v>1083</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>1372</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="30" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>1096</v>
+        <v>1084</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>1373</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="31" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>1374</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="32" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>1098</v>
+        <v>1086</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>1375</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="33" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>1099</v>
+        <v>1087</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>1387</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="34" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>1100</v>
+        <v>1088</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="35" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>1101</v>
+        <v>1089</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>1352</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="36" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>1102</v>
+        <v>1090</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>1353</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="37" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>1103</v>
+        <v>1091</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="38" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>1104</v>
+        <v>1092</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>1355</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="39" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>1105</v>
+        <v>1093</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>1356</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="40" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>1106</v>
+        <v>1094</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>1357</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="41" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>1107</v>
+        <v>1095</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>1376</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="42" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>1108</v>
+        <v>1096</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>1347</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="43" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>1109</v>
+        <v>1097</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>1348</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="44" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>1110</v>
+        <v>1098</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>1349</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="45" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>1111</v>
+        <v>1099</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="46" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>1112</v>
+        <v>1100</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>1358</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -7552,135 +7702,135 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>1113</v>
+        <v>1101</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>1363</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>1114</v>
+        <v>1102</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>1364</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>1115</v>
+        <v>1103</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>1365</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>1116</v>
+        <v>1104</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>1366</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>1117</v>
+        <v>1105</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>1367</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>1118</v>
+        <v>1106</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>1368</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>1119</v>
+        <v>1107</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>1369</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="57" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>1120</v>
+        <v>1108</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>1388</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="58" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>1121</v>
+        <v>1109</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>1389</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="59" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>1122</v>
+        <v>1110</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>1390</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>1123</v>
+        <v>1111</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>1359</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>1124</v>
+        <v>1112</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>1360</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>1125</v>
+        <v>1113</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>1361</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>1126</v>
+        <v>1114</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>1362</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="64" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>1127</v>
+        <v>1115</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>1391</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="65" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>1128</v>
+        <v>1116</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>1370</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>1129</v>
+        <v>1117</v>
       </c>
       <c r="B66" s="5">
         <v>640</v>
@@ -7688,7 +7838,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>1130</v>
+        <v>1118</v>
       </c>
       <c r="B67" s="5">
         <v>641</v>
@@ -7696,7 +7846,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>1131</v>
+        <v>1119</v>
       </c>
       <c r="B68" s="5">
         <v>642</v>
@@ -7704,7 +7854,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>1132</v>
+        <v>1120</v>
       </c>
       <c r="B69" s="5">
         <v>643</v>
@@ -7712,7 +7862,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>1133</v>
+        <v>1121</v>
       </c>
       <c r="B70" s="5">
         <v>644</v>
@@ -7720,7 +7870,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>1134</v>
+        <v>1122</v>
       </c>
       <c r="B71" s="5">
         <v>645</v>
@@ -7728,7 +7878,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>1135</v>
+        <v>1123</v>
       </c>
       <c r="B72" s="5">
         <v>646</v>
@@ -7760,10 +7910,10 @@
     </row>
     <row r="76" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>1136</v>
+        <v>1124</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>1392</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -7808,82 +7958,82 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>1137</v>
+        <v>1125</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>1393</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>1138</v>
+        <v>1126</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>1394</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>1139</v>
+        <v>1127</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>1395</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>1140</v>
+        <v>1128</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>1396</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>1141</v>
+        <v>1129</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>1397</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>1142</v>
+        <v>1130</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>1398</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>1143</v>
+        <v>1131</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>1399</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="89" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>1144</v>
+        <v>1132</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>1400</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="90" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>1145</v>
+        <v>1133</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>1401</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="91" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>1146</v>
+        <v>1134</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>1402</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -7920,114 +8070,114 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>1147</v>
+        <v>1135</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>1403</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>1148</v>
+        <v>1136</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>1404</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>1149</v>
+        <v>1137</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>1405</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>1150</v>
+        <v>1138</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>1406</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>1151</v>
+        <v>1139</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>1407</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>1152</v>
+        <v>1140</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>1408</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>1153</v>
+        <v>1141</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>1409</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
-        <v>1154</v>
+        <v>1142</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>1410</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
-        <v>1155</v>
+        <v>1143</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>1411</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="105" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>1156</v>
+        <v>1144</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>1414</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="106" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>1157</v>
+        <v>1145</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>1415</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>1158</v>
+        <v>1146</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>1412</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
-        <v>1159</v>
+        <v>1147</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>1413</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="109" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
-        <v>1160</v>
+        <v>1148</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>1416</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -8056,90 +8206,90 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>1161</v>
+        <v>1149</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>1417</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
-        <v>1162</v>
+        <v>1150</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>1418</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
-        <v>1163</v>
+        <v>1151</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>1419</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
-        <v>1164</v>
+        <v>1152</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>1420</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
-        <v>1165</v>
+        <v>1153</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>1421</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
-        <v>1166</v>
+        <v>1154</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>1422</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
-        <v>1167</v>
+        <v>1155</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>1423</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
-        <v>1168</v>
+        <v>1156</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>1424</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="121" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
-        <v>1169</v>
+        <v>1157</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>1425</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="122" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
-        <v>1170</v>
+        <v>1158</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>1427</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="123" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
-        <v>1171</v>
+        <v>1159</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>1426</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -8168,10 +8318,10 @@
     </row>
     <row r="127" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
-        <v>1172</v>
+        <v>1160</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>1428</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -8192,58 +8342,58 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
-        <v>1173</v>
+        <v>1161</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>1429</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
-        <v>1174</v>
+        <v>1162</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>1430</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
-        <v>1175</v>
+        <v>1163</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>1431</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
-        <v>1176</v>
+        <v>1164</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>1432</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
-        <v>1177</v>
+        <v>1165</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>1433</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
-        <v>1178</v>
+        <v>1166</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>1434</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
-        <v>1179</v>
+        <v>1167</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>1435</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -8320,234 +8470,234 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
-        <v>1180</v>
+        <v>1168</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>1448</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
-        <v>1181</v>
+        <v>1169</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>1449</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
-        <v>1182</v>
+        <v>1170</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>1450</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
-        <v>1183</v>
+        <v>1171</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>1451</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
-        <v>1184</v>
+        <v>1172</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>1452</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
-        <v>1185</v>
+        <v>1173</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>1453</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
-        <v>1186</v>
+        <v>1174</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>1454</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="153" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
-        <v>1187</v>
+        <v>1175</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>1457</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="154" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
-        <v>1188</v>
+        <v>1176</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>1456</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="155" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
-        <v>1189</v>
+        <v>1177</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>1458</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
-        <v>1190</v>
+        <v>1178</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>1459</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
-        <v>1191</v>
+        <v>1179</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>1460</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
-        <v>1192</v>
+        <v>1180</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>1461</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
-        <v>1193</v>
+        <v>1181</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>1462</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
-        <v>1194</v>
+        <v>1182</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>1463</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
-        <v>1195</v>
+        <v>1183</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>1455</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
-        <v>1196</v>
+        <v>1184</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>1464</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
-        <v>1197</v>
+        <v>1185</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>1465</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
-        <v>1198</v>
+        <v>1186</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>1466</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
-        <v>1199</v>
+        <v>1187</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>1467</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
-        <v>1200</v>
+        <v>1188</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>1468</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
-        <v>1201</v>
+        <v>1189</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>1469</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
-        <v>1202</v>
+        <v>1190</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>1470</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
-        <v>1203</v>
+        <v>1191</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>1471</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
-        <v>1204</v>
+        <v>1192</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>1436</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
-        <v>1205</v>
+        <v>1193</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>1437</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
-        <v>1206</v>
+        <v>1194</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>1438</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
-        <v>1207</v>
+        <v>1195</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>1439</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
-        <v>1208</v>
+        <v>1196</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>1472</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -8568,143 +8718,143 @@
     </row>
     <row r="177" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
-        <v>1209</v>
+        <v>1197</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>1473</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
-        <v>1210</v>
+        <v>1198</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>1474</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
-        <v>1211</v>
+        <v>1199</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>1475</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
-        <v>1212</v>
+        <v>1200</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>1476</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
-        <v>1213</v>
+        <v>1201</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>1477</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
-        <v>1214</v>
+        <v>1202</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>1478</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
-        <v>1215</v>
+        <v>1203</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>1479</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
-        <v>1216</v>
+        <v>1204</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>1480</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="185" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
-        <v>1217</v>
+        <v>1205</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>1481</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="186" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
-        <v>1218</v>
+        <v>1206</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>1482</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="187" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
-        <v>1219</v>
+        <v>1207</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>1483</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
-        <v>1220</v>
+        <v>1208</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>1440</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
-        <v>1221</v>
+        <v>1209</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>1441</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
-        <v>1222</v>
+        <v>1210</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>1442</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
-        <v>1223</v>
+        <v>1211</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>1443</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="192" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
-        <v>1224</v>
+        <v>1212</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>1484</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="193" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
-        <v>1225</v>
+        <v>1213</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>1485</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
-        <v>1226</v>
+        <v>1214</v>
       </c>
       <c r="B194" s="5">
         <v>720</v>
@@ -8712,7 +8862,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
-        <v>1227</v>
+        <v>1215</v>
       </c>
       <c r="B195" s="5">
         <v>721</v>
@@ -8720,7 +8870,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
-        <v>1228</v>
+        <v>1216</v>
       </c>
       <c r="B196" s="5">
         <v>722</v>
@@ -8728,7 +8878,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
-        <v>1229</v>
+        <v>1217</v>
       </c>
       <c r="B197" s="5">
         <v>723</v>
@@ -8736,7 +8886,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
-        <v>1230</v>
+        <v>1218</v>
       </c>
       <c r="B198" s="5">
         <v>724</v>
@@ -8744,7 +8894,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
-        <v>1231</v>
+        <v>1219</v>
       </c>
       <c r="B199" s="5">
         <v>725</v>
@@ -8752,7 +8902,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
-        <v>1232</v>
+        <v>1220</v>
       </c>
       <c r="B200" s="5">
         <v>726</v>
@@ -8832,82 +8982,82 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
-        <v>1233</v>
+        <v>1221</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>1486</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="6" t="s">
-        <v>1234</v>
+        <v>1222</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>1487</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="6" t="s">
-        <v>1235</v>
+        <v>1223</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>1488</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="6" t="s">
-        <v>1236</v>
+        <v>1224</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>1489</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="6" t="s">
-        <v>1237</v>
+        <v>1225</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>1490</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
-        <v>1238</v>
+        <v>1226</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>1491</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="6" t="s">
-        <v>1239</v>
+        <v>1227</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>1492</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="217" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
-        <v>1240</v>
+        <v>1228</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>1493</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="218" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="6" t="s">
-        <v>1241</v>
+        <v>1229</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>1494</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="219" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
-        <v>1242</v>
+        <v>1230</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>1495</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -8939,119 +9089,119 @@
         <v>278</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>1496</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="5" t="s">
-        <v>1243</v>
+        <v>1231</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>1444</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="s">
-        <v>1244</v>
+        <v>1232</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>1445</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="6" t="s">
-        <v>1245</v>
+        <v>1233</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>1497</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="6" t="s">
-        <v>1246</v>
+        <v>1234</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>1498</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="6" t="s">
-        <v>1247</v>
+        <v>1235</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>1499</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
-        <v>1248</v>
+        <v>1236</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="6" t="s">
-        <v>1249</v>
+        <v>1237</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>1501</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="6" t="s">
-        <v>1250</v>
+        <v>1238</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>1502</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="6" t="s">
-        <v>1251</v>
+        <v>1239</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>1503</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="233" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="6" t="s">
-        <v>1252</v>
+        <v>1240</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>1504</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="234" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="6" t="s">
-        <v>1253</v>
+        <v>1241</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>1505</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
-        <v>1254</v>
+        <v>1242</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>1446</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
-        <v>1255</v>
+        <v>1243</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>1447</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="237" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="6" t="s">
-        <v>1507</v>
+        <v>1495</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>1506</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
@@ -9075,95 +9225,95 @@
         <v>281</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>1509</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="6" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>1510</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="6" t="s">
-        <v>1257</v>
+        <v>1245</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>1511</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="6" t="s">
-        <v>1258</v>
+        <v>1246</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>1512</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="6" t="s">
-        <v>1259</v>
+        <v>1247</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>1513</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="6" t="s">
-        <v>1260</v>
+        <v>1248</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>1514</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="6" t="s">
-        <v>1261</v>
+        <v>1249</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>1515</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="6" t="s">
-        <v>1262</v>
+        <v>1250</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>1516</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="249" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="6" t="s">
-        <v>1263</v>
+        <v>1251</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>1517</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="250" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="6" t="s">
-        <v>1264</v>
+        <v>1252</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>1518</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="251" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="6" t="s">
-        <v>1265</v>
+        <v>1253</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>1519</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
@@ -9192,10 +9342,10 @@
     </row>
     <row r="255" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="6" t="s">
-        <v>1266</v>
+        <v>1254</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>1520</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
@@ -9216,58 +9366,58 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="6" t="s">
-        <v>1267</v>
+        <v>1255</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>1521</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="6" t="s">
-        <v>1268</v>
+        <v>1256</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>1522</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="6" t="s">
-        <v>1269</v>
+        <v>1257</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>1523</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="6" t="s">
-        <v>1270</v>
+        <v>1258</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>1524</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="6" t="s">
-        <v>1271</v>
+        <v>1259</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="6" t="s">
-        <v>1272</v>
+        <v>1260</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>1526</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="6" t="s">
-        <v>1273</v>
+        <v>1261</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>1527</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
@@ -9344,58 +9494,58 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="11" t="s">
-        <v>1663</v>
+        <v>1619</v>
       </c>
       <c r="B274" s="12" t="s">
-        <v>1679</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="6" t="s">
-        <v>1664</v>
+        <v>1620</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>1680</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="6" t="s">
-        <v>1665</v>
+        <v>1621</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>1681</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="6" t="s">
-        <v>1666</v>
+        <v>1622</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>1682</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="6" t="s">
-        <v>1667</v>
+        <v>1623</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>1683</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="6" t="s">
-        <v>1668</v>
+        <v>1624</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>1684</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="6" t="s">
-        <v>1669</v>
+        <v>1625</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>1685</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
@@ -9464,66 +9614,66 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="11" t="s">
-        <v>1670</v>
+        <v>1626</v>
       </c>
       <c r="B289" s="12" t="s">
-        <v>1686</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="13" t="s">
-        <v>1671</v>
+        <v>1627</v>
       </c>
       <c r="B290" s="14" t="s">
-        <v>1687</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="6" t="s">
-        <v>1672</v>
+        <v>1628</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>1688</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="6" t="s">
-        <v>1673</v>
+        <v>1629</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>1689</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="6" t="s">
-        <v>1674</v>
+        <v>1630</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>1690</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="6" t="s">
-        <v>1675</v>
+        <v>1631</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>1691</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="6" t="s">
-        <v>1676</v>
+        <v>1632</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>1692</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="6" t="s">
-        <v>1677</v>
+        <v>1633</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>1693</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
@@ -9592,10 +9742,10 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="13" t="s">
-        <v>1678</v>
+        <v>1634</v>
       </c>
       <c r="B305" s="14" t="s">
-        <v>1694</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
@@ -10368,34 +10518,34 @@
     </row>
     <row r="402" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A402" s="6" t="s">
-        <v>1081</v>
+        <v>1069</v>
       </c>
       <c r="B402" s="6" t="s">
-        <v>1528</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="403" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A403" s="6" t="s">
-        <v>1082</v>
+        <v>1070</v>
       </c>
       <c r="B403" s="6" t="s">
-        <v>1529</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="404" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A404" s="6" t="s">
-        <v>1532</v>
+        <v>1520</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>1530</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="405" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A405" s="6" t="s">
-        <v>1533</v>
+        <v>1521</v>
       </c>
       <c r="B405" s="6" t="s">
-        <v>1531</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
@@ -10496,135 +10646,135 @@
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" s="6" t="s">
-        <v>1331</v>
+        <v>1319</v>
       </c>
       <c r="B418" s="5" t="s">
-        <v>1534</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" s="6" t="s">
-        <v>1332</v>
+        <v>1320</v>
       </c>
       <c r="B419" s="5" t="s">
-        <v>1535</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" s="6" t="s">
-        <v>1333</v>
+        <v>1321</v>
       </c>
       <c r="B420" s="5" t="s">
-        <v>1536</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" s="6" t="s">
-        <v>1334</v>
+        <v>1322</v>
       </c>
       <c r="B421" s="5" t="s">
-        <v>1537</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" s="6" t="s">
-        <v>1335</v>
+        <v>1323</v>
       </c>
       <c r="B422" s="5" t="s">
-        <v>1538</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" s="6" t="s">
-        <v>1336</v>
+        <v>1324</v>
       </c>
       <c r="B423" s="5" t="s">
-        <v>1539</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" s="6" t="s">
-        <v>1337</v>
+        <v>1325</v>
       </c>
       <c r="B424" s="5" t="s">
-        <v>1540</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" s="6" t="s">
-        <v>1338</v>
+        <v>1326</v>
       </c>
       <c r="B425" s="5" t="s">
-        <v>1541</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" s="6" t="s">
-        <v>1339</v>
+        <v>1327</v>
       </c>
       <c r="B426" s="5" t="s">
-        <v>1542</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" s="6" t="s">
-        <v>1340</v>
+        <v>1328</v>
       </c>
       <c r="B427" s="5" t="s">
-        <v>1543</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" s="6" t="s">
-        <v>1341</v>
+        <v>1329</v>
       </c>
       <c r="B428" s="5" t="s">
-        <v>1544</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" s="6" t="s">
-        <v>1342</v>
+        <v>1330</v>
       </c>
       <c r="B429" s="5" t="s">
-        <v>1545</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" s="6" t="s">
-        <v>1343</v>
+        <v>1331</v>
       </c>
       <c r="B430" s="5" t="s">
-        <v>1546</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" s="6" t="s">
-        <v>1344</v>
+        <v>1332</v>
       </c>
       <c r="B431" s="5" t="s">
-        <v>1547</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" s="6" t="s">
-        <v>1345</v>
+        <v>1333</v>
       </c>
       <c r="B432" s="5" t="s">
-        <v>1548</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" s="6" t="s">
-        <v>1346</v>
+        <v>1334</v>
       </c>
       <c r="B433" s="5" t="s">
-        <v>1549</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" s="6" t="s">
-        <v>1315</v>
+        <v>1303</v>
       </c>
       <c r="B434" s="5" t="s">
         <v>811</v>
@@ -10632,7 +10782,7 @@
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" s="6" t="s">
-        <v>1316</v>
+        <v>1304</v>
       </c>
       <c r="B435" s="5" t="s">
         <v>812</v>
@@ -10640,7 +10790,7 @@
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" s="6" t="s">
-        <v>1317</v>
+        <v>1305</v>
       </c>
       <c r="B436" s="5" t="s">
         <v>813</v>
@@ -10648,7 +10798,7 @@
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" s="6" t="s">
-        <v>1318</v>
+        <v>1306</v>
       </c>
       <c r="B437" s="5" t="s">
         <v>814</v>
@@ -10656,7 +10806,7 @@
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" s="6" t="s">
-        <v>1319</v>
+        <v>1307</v>
       </c>
       <c r="B438" s="5" t="s">
         <v>815</v>
@@ -10664,7 +10814,7 @@
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" s="6" t="s">
-        <v>1320</v>
+        <v>1308</v>
       </c>
       <c r="B439" s="5" t="s">
         <v>816</v>
@@ -10672,7 +10822,7 @@
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" s="6" t="s">
-        <v>1321</v>
+        <v>1309</v>
       </c>
       <c r="B440" s="5" t="s">
         <v>817</v>
@@ -10680,7 +10830,7 @@
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" s="6" t="s">
-        <v>1322</v>
+        <v>1310</v>
       </c>
       <c r="B441" s="5" t="s">
         <v>818</v>
@@ -10688,7 +10838,7 @@
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" s="6" t="s">
-        <v>1323</v>
+        <v>1311</v>
       </c>
       <c r="B442" s="5" t="s">
         <v>819</v>
@@ -10696,7 +10846,7 @@
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" s="6" t="s">
-        <v>1324</v>
+        <v>1312</v>
       </c>
       <c r="B443" s="5" t="s">
         <v>820</v>
@@ -10704,7 +10854,7 @@
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" s="6" t="s">
-        <v>1325</v>
+        <v>1313</v>
       </c>
       <c r="B444" s="5" t="s">
         <v>821</v>
@@ -10712,7 +10862,7 @@
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" s="6" t="s">
-        <v>1326</v>
+        <v>1314</v>
       </c>
       <c r="B445" s="5" t="s">
         <v>822</v>
@@ -10720,7 +10870,7 @@
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" s="6" t="s">
-        <v>1327</v>
+        <v>1315</v>
       </c>
       <c r="B446" s="5" t="s">
         <v>823</v>
@@ -10728,7 +10878,7 @@
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" s="6" t="s">
-        <v>1328</v>
+        <v>1316</v>
       </c>
       <c r="B447" s="5" t="s">
         <v>824</v>
@@ -10736,7 +10886,7 @@
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" s="6" t="s">
-        <v>1329</v>
+        <v>1317</v>
       </c>
       <c r="B448" s="5" t="s">
         <v>825</v>
@@ -10744,7 +10894,7 @@
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" s="6" t="s">
-        <v>1330</v>
+        <v>1318</v>
       </c>
       <c r="B449" s="5" t="s">
         <v>826</v>
@@ -10752,42 +10902,42 @@
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" s="6" t="s">
-        <v>1310</v>
+        <v>1298</v>
       </c>
       <c r="B450" s="5" t="s">
-        <v>1550</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" s="6" t="s">
-        <v>1311</v>
+        <v>1299</v>
       </c>
       <c r="B451" s="5" t="s">
-        <v>1551</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" s="6" t="s">
-        <v>1312</v>
+        <v>1300</v>
       </c>
       <c r="B452" s="5" t="s">
-        <v>1552</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" s="6" t="s">
-        <v>1313</v>
+        <v>1301</v>
       </c>
       <c r="B453" s="5" t="s">
-        <v>1553</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" s="6" t="s">
-        <v>1314</v>
+        <v>1302</v>
       </c>
       <c r="B454" s="5" t="s">
-        <v>1554</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
@@ -10880,42 +11030,42 @@
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" s="6" t="s">
-        <v>1305</v>
+        <v>1293</v>
       </c>
       <c r="B466" s="5" t="s">
-        <v>1555</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" s="6" t="s">
-        <v>1306</v>
+        <v>1294</v>
       </c>
       <c r="B467" s="5" t="s">
-        <v>1556</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" s="6" t="s">
-        <v>1307</v>
+        <v>1295</v>
       </c>
       <c r="B468" s="5" t="s">
-        <v>1557</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" s="6" t="s">
-        <v>1308</v>
+        <v>1296</v>
       </c>
       <c r="B469" s="5" t="s">
-        <v>1558</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" s="6" t="s">
-        <v>1309</v>
+        <v>1297</v>
       </c>
       <c r="B470" s="5" t="s">
-        <v>1559</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
@@ -11008,50 +11158,50 @@
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" s="6" t="s">
-        <v>1299</v>
+        <v>1287</v>
       </c>
       <c r="B482" s="5" t="s">
-        <v>1560</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" s="6" t="s">
-        <v>1300</v>
+        <v>1288</v>
       </c>
       <c r="B483" s="5" t="s">
-        <v>1561</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" s="6" t="s">
-        <v>1301</v>
+        <v>1289</v>
       </c>
       <c r="B484" s="5" t="s">
-        <v>1562</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" s="6" t="s">
-        <v>1302</v>
+        <v>1290</v>
       </c>
       <c r="B485" s="5" t="s">
-        <v>1563</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" s="6" t="s">
-        <v>1303</v>
+        <v>1291</v>
       </c>
       <c r="B486" s="5" t="s">
-        <v>1564</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" s="6" t="s">
-        <v>1304</v>
+        <v>1292</v>
       </c>
       <c r="B487" s="5" t="s">
-        <v>1565</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
@@ -11059,7 +11209,7 @@
         <v>418</v>
       </c>
       <c r="B488" s="5" t="s">
-        <v>1566</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
@@ -11067,7 +11217,7 @@
         <v>419</v>
       </c>
       <c r="B489" s="5" t="s">
-        <v>1567</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
@@ -11075,7 +11225,7 @@
         <v>420</v>
       </c>
       <c r="B490" s="5" t="s">
-        <v>1568</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
@@ -11083,7 +11233,7 @@
         <v>421</v>
       </c>
       <c r="B491" s="5" t="s">
-        <v>1569</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
@@ -11136,50 +11286,50 @@
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" s="6" t="s">
-        <v>1293</v>
+        <v>1281</v>
       </c>
       <c r="B498" s="5" t="s">
-        <v>1570</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" s="6" t="s">
-        <v>1294</v>
+        <v>1282</v>
       </c>
       <c r="B499" s="5" t="s">
-        <v>1571</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" s="6" t="s">
-        <v>1295</v>
+        <v>1283</v>
       </c>
       <c r="B500" s="5" t="s">
-        <v>1574</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" s="6" t="s">
-        <v>1296</v>
+        <v>1284</v>
       </c>
       <c r="B501" s="5" t="s">
-        <v>1575</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" s="6" t="s">
-        <v>1297</v>
+        <v>1285</v>
       </c>
       <c r="B502" s="5" t="s">
-        <v>1572</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" s="6" t="s">
-        <v>1298</v>
+        <v>1286</v>
       </c>
       <c r="B503" s="5" t="s">
-        <v>1573</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
@@ -11392,18 +11542,18 @@
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530" s="6" t="s">
-        <v>1283</v>
+        <v>1271</v>
       </c>
       <c r="B530" s="5" t="s">
-        <v>1576</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" s="6" t="s">
-        <v>1284</v>
+        <v>1272</v>
       </c>
       <c r="B531" s="5" t="s">
-        <v>1577</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
@@ -11432,34 +11582,34 @@
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535" s="6" t="s">
-        <v>1285</v>
+        <v>1273</v>
       </c>
       <c r="B535" s="5" t="s">
-        <v>1578</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536" s="6" t="s">
-        <v>1288</v>
+        <v>1276</v>
       </c>
       <c r="B536" s="5" t="s">
-        <v>1579</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537" s="6" t="s">
-        <v>1286</v>
+        <v>1274</v>
       </c>
       <c r="B537" s="5" t="s">
-        <v>1580</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" s="6" t="s">
-        <v>1287</v>
+        <v>1275</v>
       </c>
       <c r="B538" s="5" t="s">
-        <v>1581</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
@@ -11472,34 +11622,34 @@
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" s="6" t="s">
-        <v>1289</v>
+        <v>1277</v>
       </c>
       <c r="B540" s="5" t="s">
-        <v>1582</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541" s="6" t="s">
-        <v>1292</v>
+        <v>1280</v>
       </c>
       <c r="B541" s="5" t="s">
-        <v>1583</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" s="6" t="s">
-        <v>1290</v>
+        <v>1278</v>
       </c>
       <c r="B542" s="5" t="s">
-        <v>1584</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543" s="6" t="s">
-        <v>1291</v>
+        <v>1279</v>
       </c>
       <c r="B543" s="5" t="s">
-        <v>1585</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.25">
@@ -11608,7 +11758,7 @@
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" s="5" t="s">
-        <v>1282</v>
+        <v>1270</v>
       </c>
       <c r="B557" s="5" t="s">
         <v>854</v>
@@ -11736,7 +11886,7 @@
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A573" s="5" t="s">
-        <v>1281</v>
+        <v>1269</v>
       </c>
       <c r="B573" s="5" t="s">
         <v>870</v>
@@ -11864,7 +12014,7 @@
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589" s="5" t="s">
-        <v>1280</v>
+        <v>1268</v>
       </c>
       <c r="B589" s="5" t="s">
         <v>886</v>
@@ -11992,7 +12142,7 @@
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A605" s="5" t="s">
-        <v>1279</v>
+        <v>1267</v>
       </c>
       <c r="B605" s="5" t="s">
         <v>902</v>
@@ -12632,7 +12782,7 @@
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A685" s="5" t="s">
-        <v>1278</v>
+        <v>1266</v>
       </c>
       <c r="B685" s="5" t="s">
         <v>934</v>
@@ -12760,7 +12910,7 @@
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A701" s="5" t="s">
-        <v>1277</v>
+        <v>1265</v>
       </c>
       <c r="B701" s="5" t="s">
         <v>950</v>
@@ -12888,7 +13038,7 @@
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A717" s="5" t="s">
-        <v>1276</v>
+        <v>1264</v>
       </c>
       <c r="B717" s="5" t="s">
         <v>966</v>
@@ -12992,7 +13142,7 @@
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A730" s="5" t="s">
-        <v>1274</v>
+        <v>1262</v>
       </c>
       <c r="B730" s="5" t="s">
         <v>979</v>
@@ -13016,7 +13166,7 @@
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A733" s="5" t="s">
-        <v>1275</v>
+        <v>1263</v>
       </c>
       <c r="B733" s="5" t="s">
         <v>982</v>
@@ -13568,50 +13718,50 @@
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A802" s="6" t="s">
-        <v>1586</v>
+        <v>1574</v>
       </c>
       <c r="B802" s="5" t="s">
-        <v>1003</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A803" s="6" t="s">
-        <v>1587</v>
+        <v>1575</v>
       </c>
       <c r="B803" s="5" t="s">
-        <v>1004</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A804" s="6" t="s">
-        <v>1588</v>
+        <v>1576</v>
       </c>
       <c r="B804" s="5" t="s">
-        <v>1005</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="805" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A805" s="6" t="s">
-        <v>1589</v>
+        <v>1577</v>
       </c>
       <c r="B805" s="5" t="s">
-        <v>1006</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="806" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A806" s="6" t="s">
-        <v>1590</v>
+        <v>1578</v>
       </c>
       <c r="B806" s="5" t="s">
-        <v>1007</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A807" s="6" t="s">
-        <v>1591</v>
+        <v>1579</v>
       </c>
       <c r="B807" s="5" t="s">
-        <v>1008</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.25">
@@ -13619,7 +13769,7 @@
         <v>652</v>
       </c>
       <c r="B808" s="5" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.25">
@@ -13627,55 +13777,55 @@
         <v>653</v>
       </c>
       <c r="B809" s="5" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A810" s="6" t="s">
-        <v>1592</v>
+        <v>1580</v>
       </c>
       <c r="B810" s="5" t="s">
-        <v>1011</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="811" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A811" s="6" t="s">
-        <v>1593</v>
+        <v>1581</v>
       </c>
       <c r="B811" s="5" t="s">
-        <v>1012</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A812" s="6" t="s">
-        <v>1594</v>
+        <v>1582</v>
       </c>
       <c r="B812" s="5" t="s">
-        <v>1013</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="813" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A813" s="6" t="s">
-        <v>1595</v>
+        <v>1583</v>
       </c>
       <c r="B813" s="5" t="s">
-        <v>1014</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A814" s="6" t="s">
-        <v>1596</v>
+        <v>1584</v>
       </c>
       <c r="B814" s="5" t="s">
-        <v>1015</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="815" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A815" s="6" t="s">
-        <v>1597</v>
+        <v>1585</v>
       </c>
       <c r="B815" s="5" t="s">
-        <v>1016</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="816" spans="1:2" x14ac:dyDescent="0.25">
@@ -13696,26 +13846,26 @@
     </row>
     <row r="818" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A818" s="6" t="s">
-        <v>1599</v>
+        <v>1587</v>
       </c>
       <c r="B818" s="6" t="s">
-        <v>1613</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="819" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A819" s="6" t="s">
-        <v>1600</v>
+        <v>1588</v>
       </c>
       <c r="B819" s="6" t="s">
-        <v>1614</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="820" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A820" s="6" t="s">
-        <v>1601</v>
+        <v>1589</v>
       </c>
       <c r="B820" s="6" t="s">
-        <v>1615</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="821" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -13728,114 +13878,114 @@
     </row>
     <row r="822" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A822" s="6" t="s">
-        <v>1602</v>
+        <v>1590</v>
       </c>
       <c r="B822" s="6" t="s">
-        <v>1616</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="823" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A823" s="6" t="s">
-        <v>1603</v>
+        <v>1591</v>
       </c>
       <c r="B823" s="6" t="s">
-        <v>1617</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="824" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A824" s="6" t="s">
-        <v>1604</v>
+        <v>1592</v>
       </c>
       <c r="B824" s="6" t="s">
-        <v>1618</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="825" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A825" s="6" t="s">
-        <v>1605</v>
+        <v>1593</v>
       </c>
       <c r="B825" s="6" t="s">
-        <v>1619</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="826" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A826" s="6" t="s">
-        <v>1606</v>
+        <v>1594</v>
       </c>
       <c r="B826" s="6" t="s">
-        <v>1620</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="827" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A827" s="6" t="s">
-        <v>1607</v>
+        <v>1595</v>
       </c>
       <c r="B827" s="6" t="s">
-        <v>1621</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="828" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A828" s="6" t="s">
-        <v>1608</v>
+        <v>1596</v>
       </c>
       <c r="B828" s="6" t="s">
-        <v>1622</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="829" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A829" s="6" t="s">
-        <v>1598</v>
+        <v>1586</v>
       </c>
       <c r="B829" s="6" t="s">
-        <v>1598</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="830" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A830" s="6" t="s">
-        <v>1609</v>
+        <v>1597</v>
       </c>
       <c r="B830" s="6" t="s">
-        <v>1623</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="831" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A831" s="6" t="s">
-        <v>1610</v>
+        <v>1598</v>
       </c>
       <c r="B831" s="6" t="s">
-        <v>1624</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="832" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A832" s="6" t="s">
-        <v>1611</v>
+        <v>1599</v>
       </c>
       <c r="B832" s="6" t="s">
-        <v>1625</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="833" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A833" s="6" t="s">
-        <v>1612</v>
+        <v>1600</v>
       </c>
       <c r="B833" s="6" t="s">
-        <v>1626</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="834" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A834" s="6" t="s">
-        <v>1659</v>
+        <v>1615</v>
       </c>
       <c r="B834" s="6" t="s">
-        <v>1661</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="835" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A835" s="6" t="s">
-        <v>1660</v>
+        <v>1616</v>
       </c>
       <c r="B835" s="6" t="s">
-        <v>1662</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="836" spans="1:2" x14ac:dyDescent="0.25">
@@ -14339,7 +14489,7 @@
         <v>680</v>
       </c>
       <c r="B898" s="5" t="s">
-        <v>1017</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="899" spans="1:2" x14ac:dyDescent="0.25">
@@ -14347,7 +14497,7 @@
         <v>681</v>
       </c>
       <c r="B899" s="5" t="s">
-        <v>1018</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="900" spans="1:2" x14ac:dyDescent="0.25">
@@ -14355,7 +14505,7 @@
         <v>682</v>
       </c>
       <c r="B900" s="5" t="s">
-        <v>1019</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="901" spans="1:2" x14ac:dyDescent="0.25">
@@ -14363,7 +14513,7 @@
         <v>683</v>
       </c>
       <c r="B901" s="5" t="s">
-        <v>1020</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="902" spans="1:2" x14ac:dyDescent="0.25">
@@ -14371,7 +14521,7 @@
         <v>684</v>
       </c>
       <c r="B902" s="5" t="s">
-        <v>1021</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="903" spans="1:2" x14ac:dyDescent="0.25">
@@ -14379,7 +14529,7 @@
         <v>685</v>
       </c>
       <c r="B903" s="5" t="s">
-        <v>1022</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="904" spans="1:2" x14ac:dyDescent="0.25">
@@ -14387,7 +14537,7 @@
         <v>686</v>
       </c>
       <c r="B904" s="5" t="s">
-        <v>1023</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="905" spans="1:2" x14ac:dyDescent="0.25">
@@ -14395,7 +14545,7 @@
         <v>687</v>
       </c>
       <c r="B905" s="5" t="s">
-        <v>1024</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="906" spans="1:2" x14ac:dyDescent="0.25">
@@ -14403,7 +14553,7 @@
         <v>688</v>
       </c>
       <c r="B906" s="5" t="s">
-        <v>1025</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="907" spans="1:2" x14ac:dyDescent="0.25">
@@ -14411,7 +14561,7 @@
         <v>689</v>
       </c>
       <c r="B907" s="5" t="s">
-        <v>1026</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="908" spans="1:2" x14ac:dyDescent="0.25">
@@ -14419,7 +14569,7 @@
         <v>690</v>
       </c>
       <c r="B908" s="5" t="s">
-        <v>1027</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="909" spans="1:2" x14ac:dyDescent="0.25">
@@ -14427,7 +14577,7 @@
         <v>691</v>
       </c>
       <c r="B909" s="5" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="910" spans="1:2" x14ac:dyDescent="0.25">
@@ -14435,7 +14585,7 @@
         <v>692</v>
       </c>
       <c r="B910" s="5" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="911" spans="1:2" x14ac:dyDescent="0.25">
@@ -14443,7 +14593,7 @@
         <v>693</v>
       </c>
       <c r="B911" s="5" t="s">
-        <v>1030</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="912" spans="1:2" x14ac:dyDescent="0.25">
@@ -14451,7 +14601,7 @@
         <v>694</v>
       </c>
       <c r="B912" s="5" t="s">
-        <v>1031</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="913" spans="1:2" x14ac:dyDescent="0.25">
@@ -14459,7 +14609,7 @@
         <v>695</v>
       </c>
       <c r="B913" s="5" t="s">
-        <v>1032</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="914" spans="1:2" x14ac:dyDescent="0.25">
@@ -14467,7 +14617,7 @@
         <v>696</v>
       </c>
       <c r="B914" s="5" t="s">
-        <v>1033</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="915" spans="1:2" x14ac:dyDescent="0.25">
@@ -14475,7 +14625,7 @@
         <v>697</v>
       </c>
       <c r="B915" s="5" t="s">
-        <v>1034</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="916" spans="1:2" x14ac:dyDescent="0.25">
@@ -14483,7 +14633,7 @@
         <v>698</v>
       </c>
       <c r="B916" s="5" t="s">
-        <v>1035</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="917" spans="1:2" x14ac:dyDescent="0.25">
@@ -14491,7 +14641,7 @@
         <v>699</v>
       </c>
       <c r="B917" s="5" t="s">
-        <v>1036</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="918" spans="1:2" x14ac:dyDescent="0.25">
@@ -14499,7 +14649,7 @@
         <v>700</v>
       </c>
       <c r="B918" s="5" t="s">
-        <v>1037</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="919" spans="1:2" x14ac:dyDescent="0.25">
@@ -14507,7 +14657,7 @@
         <v>701</v>
       </c>
       <c r="B919" s="5" t="s">
-        <v>1038</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="920" spans="1:2" x14ac:dyDescent="0.25">
@@ -14515,7 +14665,7 @@
         <v>702</v>
       </c>
       <c r="B920" s="5" t="s">
-        <v>1039</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="921" spans="1:2" x14ac:dyDescent="0.25">
@@ -14523,7 +14673,7 @@
         <v>703</v>
       </c>
       <c r="B921" s="5" t="s">
-        <v>1040</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="922" spans="1:2" x14ac:dyDescent="0.25">
@@ -14531,7 +14681,7 @@
         <v>704</v>
       </c>
       <c r="B922" s="5" t="s">
-        <v>1041</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="923" spans="1:2" x14ac:dyDescent="0.25">
@@ -14539,7 +14689,7 @@
         <v>705</v>
       </c>
       <c r="B923" s="5" t="s">
-        <v>1042</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="924" spans="1:2" x14ac:dyDescent="0.25">
@@ -14547,7 +14697,7 @@
         <v>706</v>
       </c>
       <c r="B924" s="5" t="s">
-        <v>1043</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="925" spans="1:2" x14ac:dyDescent="0.25">
@@ -14555,7 +14705,7 @@
         <v>707</v>
       </c>
       <c r="B925" s="5" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="926" spans="1:2" x14ac:dyDescent="0.25">
@@ -14563,7 +14713,7 @@
         <v>708</v>
       </c>
       <c r="B926" s="5" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="927" spans="1:2" x14ac:dyDescent="0.25">
@@ -14571,7 +14721,7 @@
         <v>709</v>
       </c>
       <c r="B927" s="5" t="s">
-        <v>1046</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="928" spans="1:2" x14ac:dyDescent="0.25">
@@ -14579,7 +14729,7 @@
         <v>710</v>
       </c>
       <c r="B928" s="5" t="s">
-        <v>1047</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="929" spans="1:2" x14ac:dyDescent="0.25">
@@ -14587,7 +14737,7 @@
         <v>711</v>
       </c>
       <c r="B929" s="5" t="s">
-        <v>1048</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="930" spans="1:2" x14ac:dyDescent="0.25">
@@ -14595,7 +14745,7 @@
         <v>712</v>
       </c>
       <c r="B930" s="5" t="s">
-        <v>1049</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="931" spans="1:2" x14ac:dyDescent="0.25">
@@ -14603,7 +14753,7 @@
         <v>713</v>
       </c>
       <c r="B931" s="5" t="s">
-        <v>1050</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="932" spans="1:2" x14ac:dyDescent="0.25">
@@ -14611,7 +14761,7 @@
         <v>714</v>
       </c>
       <c r="B932" s="5" t="s">
-        <v>1051</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="933" spans="1:2" x14ac:dyDescent="0.25">
@@ -14619,7 +14769,7 @@
         <v>715</v>
       </c>
       <c r="B933" s="5" t="s">
-        <v>1052</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="934" spans="1:2" x14ac:dyDescent="0.25">
@@ -14627,7 +14777,7 @@
         <v>716</v>
       </c>
       <c r="B934" s="5" t="s">
-        <v>1053</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="935" spans="1:2" x14ac:dyDescent="0.25">
@@ -14635,7 +14785,7 @@
         <v>717</v>
       </c>
       <c r="B935" s="5" t="s">
-        <v>1054</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="936" spans="1:2" x14ac:dyDescent="0.25">
@@ -14643,7 +14793,7 @@
         <v>718</v>
       </c>
       <c r="B936" s="5" t="s">
-        <v>1055</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="937" spans="1:2" x14ac:dyDescent="0.25">
@@ -14651,7 +14801,7 @@
         <v>719</v>
       </c>
       <c r="B937" s="5" t="s">
-        <v>1056</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="938" spans="1:2" x14ac:dyDescent="0.25">
@@ -14659,7 +14809,7 @@
         <v>720</v>
       </c>
       <c r="B938" s="5" t="s">
-        <v>1057</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="939" spans="1:2" x14ac:dyDescent="0.25">
@@ -14667,7 +14817,7 @@
         <v>721</v>
       </c>
       <c r="B939" s="5" t="s">
-        <v>1058</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="940" spans="1:2" x14ac:dyDescent="0.25">
@@ -14675,7 +14825,7 @@
         <v>722</v>
       </c>
       <c r="B940" s="5" t="s">
-        <v>1059</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="941" spans="1:2" x14ac:dyDescent="0.25">
@@ -14683,7 +14833,7 @@
         <v>723</v>
       </c>
       <c r="B941" s="5" t="s">
-        <v>1060</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="942" spans="1:2" x14ac:dyDescent="0.25">
@@ -14691,7 +14841,7 @@
         <v>724</v>
       </c>
       <c r="B942" s="5" t="s">
-        <v>1061</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="943" spans="1:2" x14ac:dyDescent="0.25">
@@ -14699,7 +14849,7 @@
         <v>725</v>
       </c>
       <c r="B943" s="5" t="s">
-        <v>1062</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="944" spans="1:2" x14ac:dyDescent="0.25">
@@ -14707,7 +14857,7 @@
         <v>726</v>
       </c>
       <c r="B944" s="5" t="s">
-        <v>1063</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="945" spans="1:2" x14ac:dyDescent="0.25">
@@ -14715,7 +14865,7 @@
         <v>727</v>
       </c>
       <c r="B945" s="5" t="s">
-        <v>1064</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="946" spans="1:2" x14ac:dyDescent="0.25">
@@ -14723,7 +14873,7 @@
         <v>728</v>
       </c>
       <c r="B946" s="5" t="s">
-        <v>1065</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="947" spans="1:2" x14ac:dyDescent="0.25">
@@ -14731,7 +14881,7 @@
         <v>729</v>
       </c>
       <c r="B947" s="5" t="s">
-        <v>1066</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="948" spans="1:2" x14ac:dyDescent="0.25">
@@ -14739,7 +14889,7 @@
         <v>730</v>
       </c>
       <c r="B948" s="5" t="s">
-        <v>1067</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="949" spans="1:2" x14ac:dyDescent="0.25">
@@ -14747,7 +14897,7 @@
         <v>731</v>
       </c>
       <c r="B949" s="5" t="s">
-        <v>1068</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="950" spans="1:2" x14ac:dyDescent="0.25">
@@ -14755,7 +14905,7 @@
         <v>732</v>
       </c>
       <c r="B950" s="5" t="s">
-        <v>1069</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="951" spans="1:2" x14ac:dyDescent="0.25">
@@ -14763,7 +14913,7 @@
         <v>733</v>
       </c>
       <c r="B951" s="5" t="s">
-        <v>1070</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="952" spans="1:2" x14ac:dyDescent="0.25">
@@ -14771,7 +14921,7 @@
         <v>734</v>
       </c>
       <c r="B952" s="5" t="s">
-        <v>1071</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="953" spans="1:2" x14ac:dyDescent="0.25">
@@ -14779,7 +14929,7 @@
         <v>735</v>
       </c>
       <c r="B953" s="5" t="s">
-        <v>1072</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="954" spans="1:2" x14ac:dyDescent="0.25">
@@ -14787,7 +14937,7 @@
         <v>736</v>
       </c>
       <c r="B954" s="5" t="s">
-        <v>1073</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="955" spans="1:2" x14ac:dyDescent="0.25">
@@ -14795,7 +14945,7 @@
         <v>737</v>
       </c>
       <c r="B955" s="5" t="s">
-        <v>1074</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="956" spans="1:2" x14ac:dyDescent="0.25">
@@ -14803,7 +14953,7 @@
         <v>738</v>
       </c>
       <c r="B956" s="5" t="s">
-        <v>1075</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="957" spans="1:2" x14ac:dyDescent="0.25">
@@ -14811,7 +14961,7 @@
         <v>739</v>
       </c>
       <c r="B957" s="5" t="s">
-        <v>1076</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="958" spans="1:2" x14ac:dyDescent="0.25">
@@ -14819,7 +14969,7 @@
         <v>740</v>
       </c>
       <c r="B958" s="5" t="s">
-        <v>1077</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="959" spans="1:2" x14ac:dyDescent="0.25">
@@ -14827,7 +14977,7 @@
         <v>741</v>
       </c>
       <c r="B959" s="5" t="s">
-        <v>1078</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="960" spans="1:2" x14ac:dyDescent="0.25">
@@ -14835,7 +14985,7 @@
         <v>742</v>
       </c>
       <c r="B960" s="5" t="s">
-        <v>1079</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="961" spans="1:2" x14ac:dyDescent="0.25">
@@ -14843,7 +14993,7 @@
         <v>743</v>
       </c>
       <c r="B961" s="5" t="s">
-        <v>1080</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="962" spans="1:2" x14ac:dyDescent="0.25">
@@ -14987,10 +15137,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9467E7BE-580E-48BC-AEF4-D3304B004A58}">
-  <dimension ref="J5:J36"/>
+  <dimension ref="G5:J68"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17:G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15000,162 +15150,370 @@
   <sheetData>
     <row r="5" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J5" t="s">
-        <v>1627</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="6" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J6" t="s">
-        <v>1628</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="7" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J7" t="s">
-        <v>1629</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="8" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J8" t="s">
-        <v>1630</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="9" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J9" t="s">
-        <v>1631</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="10" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J10" t="s">
-        <v>1632</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="11" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J11" t="s">
-        <v>1633</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="12" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J12" t="s">
-        <v>1634</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="13" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J13" t="s">
-        <v>1635</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="14" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J14" t="s">
-        <v>1636</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="15" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J15" t="s">
-        <v>1637</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="16" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J16" t="s">
-        <v>1638</v>
-      </c>
-    </row>
-    <row r="17" spans="10:10" x14ac:dyDescent="0.25">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="17" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>1727</v>
+      </c>
       <c r="J17" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="18" spans="10:10" x14ac:dyDescent="0.25">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="18" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>1728</v>
+      </c>
       <c r="J18" t="s">
-        <v>1640</v>
-      </c>
-    </row>
-    <row r="19" spans="10:10" x14ac:dyDescent="0.25">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="19" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>1729</v>
+      </c>
       <c r="J19" t="s">
-        <v>1641</v>
-      </c>
-    </row>
-    <row r="20" spans="10:10" x14ac:dyDescent="0.25">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="20" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>1730</v>
+      </c>
       <c r="J20" t="s">
-        <v>1642</v>
-      </c>
-    </row>
-    <row r="21" spans="10:10" x14ac:dyDescent="0.25">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="21" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>1731</v>
+      </c>
       <c r="J21" t="s">
-        <v>1643</v>
-      </c>
-    </row>
-    <row r="22" spans="10:10" x14ac:dyDescent="0.25">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="22" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>1732</v>
+      </c>
       <c r="J22" t="s">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="23" spans="10:10" x14ac:dyDescent="0.25">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="23" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>1733</v>
+      </c>
       <c r="J23" t="s">
-        <v>1645</v>
-      </c>
-    </row>
-    <row r="24" spans="10:10" x14ac:dyDescent="0.25">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="24" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>1734</v>
+      </c>
       <c r="J24" t="s">
-        <v>1646</v>
-      </c>
-    </row>
-    <row r="25" spans="10:10" x14ac:dyDescent="0.25">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="25" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>1735</v>
+      </c>
       <c r="J25" t="s">
-        <v>1647</v>
-      </c>
-    </row>
-    <row r="26" spans="10:10" x14ac:dyDescent="0.25">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="26" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>1736</v>
+      </c>
       <c r="J26" t="s">
-        <v>1648</v>
-      </c>
-    </row>
-    <row r="27" spans="10:10" x14ac:dyDescent="0.25">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="27" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>1737</v>
+      </c>
       <c r="J27" t="s">
-        <v>1649</v>
-      </c>
-    </row>
-    <row r="28" spans="10:10" x14ac:dyDescent="0.25">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="28" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>1738</v>
+      </c>
       <c r="J28" t="s">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="29" spans="10:10" x14ac:dyDescent="0.25">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="29" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>1739</v>
+      </c>
       <c r="J29" t="s">
-        <v>1651</v>
-      </c>
-    </row>
-    <row r="30" spans="10:10" x14ac:dyDescent="0.25">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="30" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>1740</v>
+      </c>
       <c r="J30" t="s">
-        <v>1652</v>
-      </c>
-    </row>
-    <row r="31" spans="10:10" x14ac:dyDescent="0.25">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="31" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>1741</v>
+      </c>
       <c r="J31" t="s">
-        <v>1653</v>
-      </c>
-    </row>
-    <row r="32" spans="10:10" x14ac:dyDescent="0.25">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="32" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>1741</v>
+      </c>
       <c r="J32" t="s">
-        <v>1654</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="33" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J33" t="s">
-        <v>1655</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="34" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J34" t="s">
-        <v>1656</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="35" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J35" t="s">
-        <v>1657</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="36" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J36" t="s">
-        <v>1658</v>
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="37" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J37" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="38" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J38" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="39" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J39" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="40" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J40" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="41" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J41" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="42" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J42" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="43" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J43" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="44" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J44" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="45" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J45" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="46" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J46" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="47" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J47" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="48" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J48" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="49" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J49" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="50" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J50" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="51" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J51" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="52" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J52" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="53" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J53" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="54" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J54" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="55" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J55" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="56" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J56" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="57" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J57" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="58" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J58" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="59" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J59" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="60" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J60" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="61" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J61" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="62" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J62" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="63" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J63" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="64" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J64" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="65" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J65" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="66" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J66" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="67" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J67" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="68" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J68" t="s">
+        <v>1694</v>
       </c>
     </row>
   </sheetData>

--- a/03.MAP/BENDING MAP.xlsx
+++ b/03.MAP/BENDING MAP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITM_\96.BENDING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB93BCF2-C59B-4857-80DC-9AF392EF6E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC328968-F0C3-4675-9E92-1883A065B8B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="-14025" windowWidth="21600" windowHeight="11295" xr2:uid="{94634242-89F8-4AD8-AADD-B47026808F4E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{94634242-89F8-4AD8-AADD-B47026808F4E}"/>
   </bookViews>
   <sheets>
     <sheet name="BUFFER IO" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2040" uniqueCount="1742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2041" uniqueCount="1743">
   <si>
     <t>P05A</t>
   </si>
@@ -5254,6 +5254,10 @@
   </si>
   <si>
     <t>R_4th ALIGN PRESSURE</t>
+  </si>
+  <si>
+    <t>L_4th/L_P&amp;P
+L_3rd</t>
   </si>
 </sst>
 </file>
@@ -5363,7 +5367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5403,13 +5407,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6000,204 +6007,204 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F2D3F1-5AAF-47EB-8EAD-1437A33C28C8}">
   <dimension ref="B2:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="F14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="AC43" sqref="AC43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="17" customWidth="1"/>
-    <col min="5" max="5" width="9" style="17"/>
-    <col min="6" max="6" width="15.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="17" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="17" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="17"/>
+    <col min="1" max="1" width="4.140625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="9" style="15"/>
+    <col min="6" max="6" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="15" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="15" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="15" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="15" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="15" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="15" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="15" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H13" s="17" t="s">
+      <c r="H13" s="15" t="s">
         <v>44</v>
       </c>
     </row>
@@ -6234,50 +6241,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="F1" s="15" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="F1" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="K1" s="15" t="s">
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="K1" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="F2" s="16" t="s">
+      <c r="D2" s="17"/>
+      <c r="F2" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16" t="s">
+      <c r="G2" s="17"/>
+      <c r="H2" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="K2" s="16" t="s">
+      <c r="I2" s="17"/>
+      <c r="K2" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16" t="s">
+      <c r="L2" s="17"/>
+      <c r="M2" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="N2" s="16"/>
+      <c r="N2" s="17"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -7299,7 +7306,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07762C5A-EB33-4D85-8AEA-75925E03B702}">
   <dimension ref="A1:B1005"/>
   <sheetViews>
-    <sheetView topLeftCell="A802" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A265" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A835" sqref="A835"/>
     </sheetView>
   </sheetViews>
@@ -15137,15 +15144,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9467E7BE-580E-48BC-AEF4-D3304B004A58}">
-  <dimension ref="G5:J68"/>
+  <dimension ref="G5:L68"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17:G32"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="10:10" x14ac:dyDescent="0.25">
@@ -15208,15 +15216,18 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="17" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:12" ht="30" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
         <v>1727</v>
       </c>
       <c r="J17" t="s">
         <v>1707</v>
       </c>
-    </row>
-    <row r="18" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="L17" s="18" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="18" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G18" t="s">
         <v>1728</v>
       </c>
@@ -15224,7 +15235,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="19" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G19" t="s">
         <v>1729</v>
       </c>
@@ -15232,7 +15243,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="20" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G20" t="s">
         <v>1730</v>
       </c>
@@ -15240,7 +15251,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="21" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G21" t="s">
         <v>1731</v>
       </c>
@@ -15248,7 +15259,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="22" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G22" t="s">
         <v>1732</v>
       </c>
@@ -15256,7 +15267,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="23" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G23" t="s">
         <v>1733</v>
       </c>
@@ -15264,7 +15275,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="24" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G24" t="s">
         <v>1734</v>
       </c>
@@ -15272,7 +15283,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="25" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G25" t="s">
         <v>1735</v>
       </c>
@@ -15280,7 +15291,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="26" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G26" t="s">
         <v>1736</v>
       </c>
@@ -15288,7 +15299,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="27" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G27" t="s">
         <v>1737</v>
       </c>
@@ -15296,7 +15307,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="28" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G28" t="s">
         <v>1738</v>
       </c>
@@ -15304,7 +15315,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="29" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G29" t="s">
         <v>1739</v>
       </c>
@@ -15312,7 +15323,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="30" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G30" t="s">
         <v>1740</v>
       </c>
@@ -15320,7 +15331,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="31" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G31" t="s">
         <v>1741</v>
       </c>
@@ -15328,7 +15339,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="32" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G32" t="s">
         <v>1741</v>
       </c>
